--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_5_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_5_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2707476.323295314</v>
+        <v>2706764.02147227</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167214.7199159991</v>
+        <v>167214.719915999</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058546</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.817899082923868</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>3.199249640013477</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>188.497933319247</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>188.497933319247</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>188.497933319247</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>114.3554345392806</v>
       </c>
       <c r="I11" t="n">
-        <v>62.8615050624083</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.73328122929896</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.31761724675134</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00227733958184</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>142.7315194560841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.748199672699</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.6344501416382</v>
       </c>
       <c r="Y11" t="n">
-        <v>103.1674746051844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.369887371298148</v>
+        <v>9.369887371298006</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,13 +1458,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>85.92183225735342</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161073</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44252716693654</v>
+        <v>13.4425271669364</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82265945242251</v>
+        <v>50.09336862983317</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382084</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233447</v>
+        <v>62.50065676233433</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394382</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="X12" t="n">
-        <v>39.16465028640283</v>
+        <v>39.16465028640269</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095784</v>
+        <v>45.2360219809577</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256635</v>
+        <v>25.28169700256621</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311279</v>
+        <v>57.28978021311265</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725524</v>
+        <v>45.61329429725509</v>
       </c>
       <c r="U13" t="n">
-        <v>110.5082928154978</v>
+        <v>110.5082928154977</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138213</v>
+        <v>66.96075103138199</v>
       </c>
       <c r="W13" t="n">
-        <v>112.1624429362676</v>
+        <v>112.1624429362674</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77119125517476</v>
+        <v>43.77119125517461</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110065</v>
+        <v>38.9930086611005</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25.35231447747361</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554827</v>
+        <v>80.27118874678736</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240821</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929901</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.36873040538039</v>
       </c>
       <c r="T14" t="n">
-        <v>44.3176172467514</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958189</v>
+        <v>72.00227733958195</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.748199672699</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X14" t="n">
         <v>181.6344501416383</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
     </row>
     <row r="15">
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.369887371298063</v>
+        <v>9.36988737129812</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>76.29756912799408</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44252716693646</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="T15" t="n">
-        <v>138.8423516998831</v>
+        <v>36.82265945242248</v>
       </c>
       <c r="U15" t="n">
-        <v>59.07980534382075</v>
+        <v>59.07980534382081</v>
       </c>
       <c r="V15" t="n">
-        <v>188.497933319247</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="W15" t="n">
-        <v>88.55631942394373</v>
+        <v>88.55631942394379</v>
       </c>
       <c r="X15" t="n">
-        <v>188.497933319247</v>
+        <v>39.1646502864028</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095776</v>
+        <v>45.23602198095782</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256627</v>
+        <v>25.28169700256633</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311271</v>
+        <v>57.28978021311276</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725515</v>
+        <v>45.61329429725521</v>
       </c>
       <c r="U16" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96075103138205</v>
+        <v>66.9607510313821</v>
       </c>
       <c r="W16" t="n">
         <v>112.1624429362675</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77119125517467</v>
+        <v>43.77119125517473</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110056</v>
+        <v>38.99300866110062</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63956945084885</v>
+        <v>76.6395694508488</v>
       </c>
       <c r="C17" t="n">
-        <v>52.75782645419434</v>
+        <v>52.75782645419429</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32448871524281</v>
+        <v>40.32448871524274</v>
       </c>
       <c r="E17" t="n">
-        <v>74.03124113465168</v>
+        <v>74.03124113465162</v>
       </c>
       <c r="F17" t="n">
-        <v>105.751578713029</v>
+        <v>105.7515787130289</v>
       </c>
       <c r="G17" t="n">
         <v>121.390502035664</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156608</v>
+        <v>49.57372768156603</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.43211268216754</v>
+        <v>23.43211268216749</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44879289878241</v>
+        <v>40.44879289878236</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33504336772165</v>
+        <v>62.3350433677216</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83789649146541</v>
+        <v>84.83789649146536</v>
       </c>
     </row>
     <row r="18">
@@ -1923,10 +1923,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>18.60410351259566</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>43.0566178000964</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="W18" t="n">
-        <v>188.497933319247</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>188.497933319247</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.63956945084871</v>
+        <v>76.6395694508488</v>
       </c>
       <c r="C20" t="n">
-        <v>52.75782645419434</v>
+        <v>52.75782645419429</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32448871524281</v>
+        <v>40.32448871524275</v>
       </c>
       <c r="E20" t="n">
-        <v>74.03124113465168</v>
+        <v>74.03124113465162</v>
       </c>
       <c r="F20" t="n">
-        <v>105.751578713029</v>
+        <v>105.7515787130289</v>
       </c>
       <c r="G20" t="n">
         <v>121.390502035664</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57372768156608</v>
+        <v>49.57372768156603</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.43211268216754</v>
+        <v>23.43211268216749</v>
       </c>
       <c r="W20" t="n">
-        <v>40.44879289878241</v>
+        <v>40.44879289878236</v>
       </c>
       <c r="X20" t="n">
-        <v>62.33504336772165</v>
+        <v>62.3350433677216</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.83789649146541</v>
+        <v>84.83789649146536</v>
       </c>
     </row>
     <row r="21">
@@ -2163,13 +2163,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161073</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>60.63479712118372</v>
       </c>
       <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
         <v>188.4979333192471</v>
-      </c>
-      <c r="U21" t="n">
-        <v>54.11421720367282</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.63956945084885</v>
+        <v>76.6395694508488</v>
       </c>
       <c r="C23" t="n">
-        <v>52.75782645419434</v>
+        <v>52.75782645419429</v>
       </c>
       <c r="D23" t="n">
-        <v>40.32448871524281</v>
+        <v>40.32448871524275</v>
       </c>
       <c r="E23" t="n">
-        <v>74.03124113465168</v>
+        <v>74.03124113465162</v>
       </c>
       <c r="F23" t="n">
-        <v>105.751578713029</v>
+        <v>105.7515787130289</v>
       </c>
       <c r="G23" t="n">
         <v>121.390502035664</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57372768156608</v>
+        <v>49.57372768156603</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.43211268216754</v>
+        <v>23.43211268216749</v>
       </c>
       <c r="W23" t="n">
-        <v>40.44879289878241</v>
+        <v>40.44879289878236</v>
       </c>
       <c r="X23" t="n">
-        <v>62.33504336772165</v>
+        <v>62.3350433677216</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.83789649146541</v>
+        <v>84.83789649146536</v>
       </c>
     </row>
     <row r="24">
@@ -2400,22 +2400,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>49.26654443777873</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161073</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>134.7198007890777</v>
@@ -2448,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>188.497933319247</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>188.497933319247</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>188.497933319247</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>31.30917887851506</v>
       </c>
     </row>
     <row r="25">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6024898538323</v>
+        <v>160.6024898538324</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7207468571778</v>
+        <v>136.7207468571779</v>
       </c>
       <c r="D26" t="n">
         <v>124.2874091182263</v>
@@ -2573,7 +2573,7 @@
         <v>133.5366480845496</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147508</v>
+        <v>27.52501869147511</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.0322440344472</v>
+        <v>14.03224403444723</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818268</v>
+        <v>8.981130875818296</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864876</v>
+        <v>36.66579096864879</v>
       </c>
       <c r="V26" t="n">
-        <v>107.395033085151</v>
+        <v>107.3950330851511</v>
       </c>
       <c r="W26" t="n">
         <v>124.4117133017659</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2979637707051</v>
+        <v>146.2979637707052</v>
       </c>
       <c r="Y26" t="n">
         <v>168.8008168944489</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>6.869455874161073</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890777</v>
+        <v>30.82753755897601</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489292</v>
+        <v>1.48617308148932</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288762</v>
+        <v>23.74331897288765</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16417039140126</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>114.9517621432784</v>
+        <v>53.21983305301063</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>3.828163915469645</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>9.899535610024657</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95329384217958</v>
+        <v>21.95329384217961</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632202</v>
+        <v>10.27680792632205</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17180644456462</v>
+        <v>75.17180644456465</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044892</v>
+        <v>31.62426466044894</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533434</v>
+        <v>76.82595656533437</v>
       </c>
       <c r="X28" t="n">
-        <v>8.43470488424154</v>
+        <v>8.434704884241569</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.65652229016743</v>
+        <v>3.656522290167459</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.6024898538324</v>
+        <v>160.6024898538323</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7207468571779</v>
+        <v>136.7207468571777</v>
       </c>
       <c r="D29" t="n">
-        <v>124.2874091182264</v>
+        <v>124.2874091182262</v>
       </c>
       <c r="E29" t="n">
-        <v>157.9941615376353</v>
+        <v>157.9941615376351</v>
       </c>
       <c r="F29" t="n">
-        <v>189.7144991160126</v>
+        <v>189.7144991160124</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3534224386476</v>
+        <v>205.3534224386474</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5366480845497</v>
+        <v>133.5366480845495</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147516</v>
+        <v>27.52501869147499</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444729</v>
+        <v>14.03224403444712</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818353</v>
+        <v>8.981130875818183</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864885</v>
+        <v>36.66579096864868</v>
       </c>
       <c r="V29" t="n">
-        <v>107.3950330851511</v>
+        <v>107.3950330851509</v>
       </c>
       <c r="W29" t="n">
-        <v>124.411713301766</v>
+        <v>124.4117133017658</v>
       </c>
       <c r="X29" t="n">
-        <v>146.2979637707052</v>
+        <v>146.2979637707051</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.800816894449</v>
+        <v>168.8008168944488</v>
       </c>
     </row>
     <row r="30">
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.486173081489377</v>
+        <v>197.937902960835</v>
       </c>
       <c r="U30" t="n">
-        <v>89.78614885381199</v>
+        <v>23.74331897288754</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.21983305301069</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>3.828163915469702</v>
+        <v>3.828163915469531</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.899535610024714</v>
+        <v>9.899535610024543</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95329384217967</v>
+        <v>21.95329384217949</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632211</v>
+        <v>10.27680792632194</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456471</v>
+        <v>75.17180644456454</v>
       </c>
       <c r="V31" t="n">
-        <v>31.624264660449</v>
+        <v>31.62426466044883</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533442</v>
+        <v>76.82595656533425</v>
       </c>
       <c r="X31" t="n">
-        <v>8.434704884241626</v>
+        <v>8.434704884241455</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.656522290167516</v>
+        <v>3.656522290167345</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>123.4596992513621</v>
       </c>
       <c r="E32" t="n">
-        <v>157.166451670771</v>
+        <v>157.1664516707709</v>
       </c>
       <c r="F32" t="n">
         <v>188.8867892491483</v>
@@ -3044,10 +3044,10 @@
         <v>204.5257125717833</v>
       </c>
       <c r="H32" t="n">
-        <v>132.7089382176854</v>
+        <v>132.7089382176853</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461087</v>
+        <v>26.69730882461084</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758301</v>
+        <v>13.20453416758298</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008954069</v>
+        <v>8.153421008954041</v>
       </c>
       <c r="U32" t="n">
-        <v>35.83808110178455</v>
+        <v>35.83808110178452</v>
       </c>
       <c r="V32" t="n">
         <v>106.5673232182868</v>
@@ -3114,10 +3114,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>65.04276855772474</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47517038390262</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146250808</v>
+        <v>0.6584632146250524</v>
       </c>
       <c r="U33" t="n">
-        <v>22.91560910602341</v>
+        <v>22.91560910602338</v>
       </c>
       <c r="V33" t="n">
-        <v>26.33646052453705</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>249.0338665742728</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>3.000454048605377</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.071825743160417</v>
+        <v>9.071825743160389</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.12558397531537</v>
+        <v>21.12558397531534</v>
       </c>
       <c r="T34" t="n">
-        <v>9.44909805945781</v>
+        <v>9.449098059457782</v>
       </c>
       <c r="U34" t="n">
-        <v>74.34409657770041</v>
+        <v>74.34409657770038</v>
       </c>
       <c r="V34" t="n">
-        <v>30.7965547935847</v>
+        <v>30.79655479358468</v>
       </c>
       <c r="W34" t="n">
-        <v>75.99824669847013</v>
+        <v>75.9982466984701</v>
       </c>
       <c r="X34" t="n">
-        <v>7.606995017377329</v>
+        <v>7.606995017377301</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.828812423303219</v>
+        <v>2.828812423303191</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0280721215647</v>
+        <v>102.0280721215646</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14632912491015</v>
+        <v>78.1463291249101</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71299138595862</v>
+        <v>65.71299138595856</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41974380536749</v>
+        <v>99.41974380536743</v>
       </c>
       <c r="F35" t="n">
         <v>131.1400813837448</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7790047063799</v>
+        <v>146.7790047063798</v>
       </c>
       <c r="H35" t="n">
-        <v>74.96223035228189</v>
+        <v>74.96223035228184</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82061535288335</v>
+        <v>48.82061535288329</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83729556949822</v>
+        <v>65.83729556949817</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72354603843746</v>
+        <v>87.72354603843741</v>
       </c>
       <c r="Y35" t="n">
         <v>110.2263991621812</v>
@@ -3345,22 +3345,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>48.99804840127219</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3387,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161073</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>210.0810150728774</v>
       </c>
       <c r="W36" t="n">
-        <v>260.4608093700289</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59738871229694</v>
+        <v>16.59738871229688</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25153883306666</v>
+        <v>18.2515388330666</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.0280721215647</v>
+        <v>102.0280721215646</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14632912491015</v>
+        <v>78.1463291249101</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71299138595862</v>
+        <v>65.71299138595856</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41974380536749</v>
+        <v>99.41974380536743</v>
       </c>
       <c r="F38" t="n">
         <v>131.1400813837448</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7790047063799</v>
+        <v>146.7790047063798</v>
       </c>
       <c r="H38" t="n">
-        <v>74.96223035228189</v>
+        <v>74.96223035228184</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82061535288335</v>
+        <v>48.82061535288329</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83729556949822</v>
+        <v>65.83729556949817</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72354603843746</v>
+        <v>87.72354603843741</v>
       </c>
       <c r="Y38" t="n">
         <v>110.2263991621812</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>153.2100245419506</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3633,19 +3633,19 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>80.16410009349637</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59738871229694</v>
+        <v>16.59738871229688</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25153883306666</v>
+        <v>18.2515388330666</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>133.0774711623573</v>
+        <v>133.0774711623572</v>
       </c>
       <c r="C41" t="n">
-        <v>109.1957281657028</v>
+        <v>109.1957281657027</v>
       </c>
       <c r="D41" t="n">
-        <v>96.76239042675124</v>
+        <v>96.76239042675118</v>
       </c>
       <c r="E41" t="n">
         <v>130.4691428461601</v>
@@ -3752,7 +3752,7 @@
         <v>162.1894804245374</v>
       </c>
       <c r="G41" t="n">
-        <v>177.8284037471725</v>
+        <v>177.8284037471724</v>
       </c>
       <c r="H41" t="n">
         <v>106.0116293930745</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.140772277173706</v>
+        <v>9.140772277173649</v>
       </c>
       <c r="V41" t="n">
-        <v>79.87001439367597</v>
+        <v>79.87001439367592</v>
       </c>
       <c r="W41" t="n">
-        <v>96.88669461029085</v>
+        <v>96.88669461029079</v>
       </c>
       <c r="X41" t="n">
-        <v>118.7729450792301</v>
+        <v>118.77294507923</v>
       </c>
       <c r="Y41" t="n">
         <v>141.2757982029738</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>67.95222079475013</v>
+        <v>22.31494261786555</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.64678775308956</v>
+        <v>47.64678775308951</v>
       </c>
       <c r="V43" t="n">
-        <v>4.099245968973861</v>
+        <v>4.099245968973804</v>
       </c>
       <c r="W43" t="n">
-        <v>49.30093787385928</v>
+        <v>49.30093787385923</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>133.0774711623573</v>
+        <v>133.0774711623572</v>
       </c>
       <c r="C44" t="n">
-        <v>109.1957281657028</v>
+        <v>109.1957281657027</v>
       </c>
       <c r="D44" t="n">
-        <v>96.76239042675124</v>
+        <v>96.76239042675118</v>
       </c>
       <c r="E44" t="n">
         <v>130.4691428461601</v>
@@ -3989,7 +3989,7 @@
         <v>162.1894804245374</v>
       </c>
       <c r="G44" t="n">
-        <v>177.8284037471725</v>
+        <v>177.8284037471724</v>
       </c>
       <c r="H44" t="n">
         <v>106.0116293930745</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.140772277173706</v>
+        <v>9.140772277173649</v>
       </c>
       <c r="V44" t="n">
-        <v>79.87001439367597</v>
+        <v>79.87001439367592</v>
       </c>
       <c r="W44" t="n">
-        <v>96.88669461029085</v>
+        <v>96.88669461029079</v>
       </c>
       <c r="X44" t="n">
-        <v>118.7729450792301</v>
+        <v>118.77294507923</v>
       </c>
       <c r="Y44" t="n">
         <v>141.2757982029738</v>
@@ -4098,31 +4098,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161062</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>140.6248581410954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69481436153549</v>
       </c>
       <c r="X45" t="n">
-        <v>75.92306184292767</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.64678775308956</v>
+        <v>47.64678775308951</v>
       </c>
       <c r="V46" t="n">
-        <v>4.099245968973861</v>
+        <v>4.099245968973804</v>
       </c>
       <c r="W46" t="n">
-        <v>49.30093787385928</v>
+        <v>49.30093787385923</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4808,43 +4808,43 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="L8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="M8" t="n">
-        <v>3.551813413473549</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="N8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="O8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="P8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="R8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="S8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="T8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="X8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Y8" t="n">
         <v>6.719070557086891</v>
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.102302681225188</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="C9" t="n">
-        <v>3.102302681225188</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="D9" t="n">
-        <v>3.102302681225188</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="E9" t="n">
         <v>3.102302681225188</v>
       </c>
       <c r="F9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="G9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="H9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I9" t="n">
         <v>0.2559399712010781</v>
@@ -4884,13 +4884,13 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>3.42319711481442</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L9" t="n">
-        <v>3.42319711481442</v>
+        <v>3.295227129213883</v>
       </c>
       <c r="M9" t="n">
-        <v>3.42319711481442</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="N9" t="n">
         <v>6.462484272827225</v>
@@ -4902,13 +4902,13 @@
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
+        <v>12.79699856005391</v>
+      </c>
+      <c r="R9" t="n">
         <v>9.565433267111001</v>
       </c>
-      <c r="R9" t="n">
-        <v>6.333867974168094</v>
-      </c>
       <c r="S9" t="n">
-        <v>6.333867974168094</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="T9" t="n">
         <v>6.333867974168094</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>649.782162968721</v>
+        <v>130.590374604207</v>
       </c>
       <c r="C11" t="n">
-        <v>649.782162968721</v>
+        <v>130.590374604207</v>
       </c>
       <c r="D11" t="n">
-        <v>649.782162968721</v>
+        <v>130.590374604207</v>
       </c>
       <c r="E11" t="n">
-        <v>459.3802101209967</v>
+        <v>130.590374604207</v>
       </c>
       <c r="F11" t="n">
-        <v>268.9782572732724</v>
+        <v>130.590374604207</v>
       </c>
       <c r="G11" t="n">
-        <v>78.57630442554814</v>
+        <v>130.590374604207</v>
       </c>
       <c r="H11" t="n">
-        <v>78.57630442554814</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I11" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4328134021287</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="K11" t="n">
-        <v>285.1396746888278</v>
+        <v>285.1396746888281</v>
       </c>
       <c r="L11" t="n">
-        <v>331.8605171695878</v>
+        <v>331.8605171695881</v>
       </c>
       <c r="M11" t="n">
-        <v>518.4734711556423</v>
+        <v>518.4734711556428</v>
       </c>
       <c r="N11" t="n">
-        <v>705.0864251416969</v>
+        <v>593.8013642913351</v>
       </c>
       <c r="O11" t="n">
-        <v>739.3070598343645</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="P11" t="n">
-        <v>753.991733276988</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.991733276988</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="R11" t="n">
-        <v>753.991733276988</v>
+        <v>737.0894290049691</v>
       </c>
       <c r="S11" t="n">
-        <v>753.991733276988</v>
+        <v>737.0894290049691</v>
       </c>
       <c r="T11" t="n">
-        <v>753.991733276988</v>
+        <v>692.3241590587556</v>
       </c>
       <c r="U11" t="n">
-        <v>753.991733276988</v>
+        <v>619.594585988471</v>
       </c>
       <c r="V11" t="n">
-        <v>753.991733276988</v>
+        <v>475.4213340126284</v>
       </c>
       <c r="W11" t="n">
-        <v>753.991733276988</v>
+        <v>314.0595161614173</v>
       </c>
       <c r="X11" t="n">
-        <v>753.991733276988</v>
+        <v>130.590374604207</v>
       </c>
       <c r="Y11" t="n">
-        <v>649.782162968721</v>
+        <v>130.590374604207</v>
       </c>
     </row>
     <row r="12">
@@ -5094,31 +5094,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>398.7673935891297</v>
+        <v>24.54436736382058</v>
       </c>
       <c r="C12" t="n">
-        <v>389.3028608908488</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D12" t="n">
-        <v>389.3028608908488</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E12" t="n">
-        <v>389.3028608908488</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F12" t="n">
-        <v>228.8751446080929</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G12" t="n">
-        <v>142.0854150552106</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H12" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I12" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J12" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K12" t="n">
         <v>53.04316068142009</v>
@@ -5130,40 +5130,40 @@
         <v>352.0527264137995</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998541</v>
+        <v>538.6656803998542</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188884</v>
+        <v>670.3666200188885</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769883</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0528889596538</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="R12" t="n">
-        <v>747.0528889596538</v>
+        <v>617.9111264193342</v>
       </c>
       <c r="S12" t="n">
-        <v>733.474578690021</v>
+        <v>604.3328161497014</v>
       </c>
       <c r="T12" t="n">
-        <v>696.2799731825235</v>
+        <v>553.7334538973447</v>
       </c>
       <c r="U12" t="n">
-        <v>636.603402128159</v>
+        <v>363.3315010496204</v>
       </c>
       <c r="V12" t="n">
-        <v>573.4714256005484</v>
+        <v>300.1995245220099</v>
       </c>
       <c r="W12" t="n">
-        <v>484.020597899595</v>
+        <v>109.7975716742856</v>
       </c>
       <c r="X12" t="n">
-        <v>444.4603450850467</v>
+        <v>70.23731885973746</v>
       </c>
       <c r="Y12" t="n">
-        <v>398.7673935891297</v>
+        <v>24.54436736382058</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>248.880936853078</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C13" t="n">
-        <v>260.4551092023625</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D13" t="n">
-        <v>293.091066965696</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E13" t="n">
-        <v>325.3353485494308</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F13" t="n">
-        <v>364.1645166647057</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G13" t="n">
-        <v>364.1645166647057</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H13" t="n">
-        <v>376.3651444981228</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I13" t="n">
-        <v>376.3651444981228</v>
+        <v>28.2421777897916</v>
       </c>
       <c r="J13" t="n">
-        <v>433.69471450258</v>
+        <v>28.2421777897916</v>
       </c>
       <c r="K13" t="n">
-        <v>433.69471450258</v>
+        <v>28.2421777897916</v>
       </c>
       <c r="L13" t="n">
-        <v>433.69471450258</v>
+        <v>102.9691804726895</v>
       </c>
       <c r="M13" t="n">
-        <v>585.0967992692126</v>
+        <v>102.9691804726895</v>
       </c>
       <c r="N13" t="n">
-        <v>585.0967992692126</v>
+        <v>262.9810061886382</v>
       </c>
       <c r="O13" t="n">
-        <v>585.0967992692126</v>
+        <v>402.2436925423763</v>
       </c>
       <c r="P13" t="n">
-        <v>703.5697678695033</v>
+        <v>520.7166611426671</v>
       </c>
       <c r="Q13" t="n">
-        <v>753.991733276988</v>
+        <v>520.7166611426671</v>
       </c>
       <c r="R13" t="n">
-        <v>728.454665597628</v>
+        <v>495.1795934633074</v>
       </c>
       <c r="S13" t="n">
-        <v>670.5862007358979</v>
+        <v>437.3111286015774</v>
       </c>
       <c r="T13" t="n">
-        <v>624.5121660922058</v>
+        <v>391.2370939578854</v>
       </c>
       <c r="U13" t="n">
-        <v>512.8876278947332</v>
+        <v>279.612555760413</v>
       </c>
       <c r="V13" t="n">
-        <v>445.2505056408119</v>
+        <v>211.9754335064918</v>
       </c>
       <c r="W13" t="n">
-        <v>331.9551087354911</v>
+        <v>98.6800366011712</v>
       </c>
       <c r="X13" t="n">
-        <v>287.7417842353145</v>
+        <v>54.46671210099482</v>
       </c>
       <c r="Y13" t="n">
-        <v>248.3549067998593</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>249.1552281179549</v>
+        <v>96.1618435006784</v>
       </c>
       <c r="C14" t="n">
-        <v>249.1552281179549</v>
+        <v>96.1618435006784</v>
       </c>
       <c r="D14" t="n">
-        <v>249.1552281179549</v>
+        <v>96.1618435006784</v>
       </c>
       <c r="E14" t="n">
-        <v>249.1552281179549</v>
+        <v>96.1618435006784</v>
       </c>
       <c r="F14" t="n">
-        <v>249.1552281179549</v>
+        <v>96.1618435006784</v>
       </c>
       <c r="G14" t="n">
-        <v>249.1552281179549</v>
+        <v>96.1618435006784</v>
       </c>
       <c r="H14" t="n">
-        <v>78.57630442554807</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I14" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J14" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K14" t="n">
-        <v>15.07983466553976</v>
+        <v>184.7866959522389</v>
       </c>
       <c r="L14" t="n">
-        <v>185.1194617282522</v>
+        <v>231.5075384329989</v>
       </c>
       <c r="M14" t="n">
-        <v>371.7324157143067</v>
+        <v>312.3694375199461</v>
       </c>
       <c r="N14" t="n">
-        <v>558.3453697003613</v>
+        <v>498.9823915060007</v>
       </c>
       <c r="O14" t="n">
-        <v>592.5660043930289</v>
+        <v>685.5953454920552</v>
       </c>
       <c r="P14" t="n">
-        <v>753.9917332769882</v>
+        <v>685.5953454920552</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9917332769882</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="R14" t="n">
-        <v>737.089429004969</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="S14" t="n">
-        <v>737.089429004969</v>
+        <v>704.1243288271091</v>
       </c>
       <c r="T14" t="n">
-        <v>692.3241590587555</v>
+        <v>704.1243288271091</v>
       </c>
       <c r="U14" t="n">
-        <v>619.594585988471</v>
+        <v>631.3947557568243</v>
       </c>
       <c r="V14" t="n">
-        <v>619.594585988471</v>
+        <v>631.3947557568243</v>
       </c>
       <c r="W14" t="n">
-        <v>458.2327681372598</v>
+        <v>470.0329379056132</v>
       </c>
       <c r="X14" t="n">
-        <v>274.7636265800494</v>
+        <v>286.5637963484027</v>
       </c>
       <c r="Y14" t="n">
-        <v>274.7636265800494</v>
+        <v>96.1618435006784</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.54436736382063</v>
+        <v>101.6126190082592</v>
       </c>
       <c r="C15" t="n">
-        <v>15.07983466553976</v>
+        <v>92.14808630997824</v>
       </c>
       <c r="D15" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E15" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F15" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G15" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H15" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I15" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J15" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K15" t="n">
         <v>53.04316068142009</v>
@@ -5373,34 +5373,34 @@
         <v>670.3666200188884</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9917332769882</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="Q15" t="n">
-        <v>753.9917332769882</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="R15" t="n">
-        <v>753.9917332769882</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="S15" t="n">
-        <v>740.4134230073554</v>
+        <v>563.589780429264</v>
       </c>
       <c r="T15" t="n">
-        <v>600.1686233105038</v>
+        <v>526.3951749217665</v>
       </c>
       <c r="U15" t="n">
-        <v>540.4920522561393</v>
+        <v>466.7186038674021</v>
       </c>
       <c r="V15" t="n">
-        <v>350.0900994084151</v>
+        <v>276.3166510196777</v>
       </c>
       <c r="W15" t="n">
-        <v>260.6392717074618</v>
+        <v>186.8658233187244</v>
       </c>
       <c r="X15" t="n">
-        <v>70.23731885973757</v>
+        <v>147.3055705041762</v>
       </c>
       <c r="Y15" t="n">
-        <v>24.54436736382063</v>
+        <v>101.6126190082592</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C16" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D16" t="n">
-        <v>15.07983466553976</v>
+        <v>47.71579242887329</v>
       </c>
       <c r="E16" t="n">
-        <v>51.1872363769742</v>
+        <v>83.82319414030766</v>
       </c>
       <c r="F16" t="n">
-        <v>51.1872363769742</v>
+        <v>83.82319414030766</v>
       </c>
       <c r="G16" t="n">
-        <v>51.1872363769742</v>
+        <v>83.82319414030766</v>
       </c>
       <c r="H16" t="n">
-        <v>51.1872363769742</v>
+        <v>83.82319414030766</v>
       </c>
       <c r="I16" t="n">
-        <v>51.1872363769742</v>
+        <v>83.82319414030766</v>
       </c>
       <c r="J16" t="n">
-        <v>108.5168063814315</v>
+        <v>141.1527641447649</v>
       </c>
       <c r="K16" t="n">
-        <v>218.5239075551706</v>
+        <v>141.1527641447649</v>
       </c>
       <c r="L16" t="n">
-        <v>363.0603909810106</v>
+        <v>141.1527641447649</v>
       </c>
       <c r="M16" t="n">
-        <v>514.4624757476433</v>
+        <v>292.5548489113975</v>
       </c>
       <c r="N16" t="n">
-        <v>514.4624757476433</v>
+        <v>452.566674627346</v>
       </c>
       <c r="O16" t="n">
-        <v>514.4624757476433</v>
+        <v>520.716661142668</v>
       </c>
       <c r="P16" t="n">
-        <v>514.4624757476433</v>
+        <v>520.716661142668</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426676</v>
+        <v>520.716661142668</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633078</v>
+        <v>495.1795934633082</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3111286015778</v>
+        <v>437.3111286015781</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2370939578857</v>
+        <v>391.237093957886</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604132</v>
+        <v>279.6125557604134</v>
       </c>
       <c r="V16" t="n">
-        <v>211.975433506492</v>
+        <v>211.9754335064922</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117131</v>
+        <v>98.68003660117142</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099488</v>
+        <v>54.46671210099493</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="17">
@@ -5489,70 +5489,70 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961942</v>
+        <v>463.3923242961943</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040786</v>
+        <v>410.1015905040788</v>
       </c>
       <c r="D17" t="n">
         <v>369.369783721005</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718618</v>
+        <v>294.590752271862</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940548</v>
+        <v>187.7709757940549</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116207</v>
+        <v>65.15430707116202</v>
       </c>
       <c r="H17" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95335735993308</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J17" t="n">
-        <v>70.95335735993308</v>
+        <v>201.6927886515944</v>
       </c>
       <c r="K17" t="n">
-        <v>257.5663113459876</v>
+        <v>388.305742637649</v>
       </c>
       <c r="L17" t="n">
-        <v>444.1792653320422</v>
+        <v>494.3499367568301</v>
       </c>
       <c r="M17" t="n">
-        <v>525.0411644189894</v>
+        <v>575.2118358437773</v>
       </c>
       <c r="N17" t="n">
-        <v>600.3690575546817</v>
+        <v>650.5397289794696</v>
       </c>
       <c r="O17" t="n">
-        <v>634.5896922473494</v>
+        <v>684.7603636721373</v>
       </c>
       <c r="P17" t="n">
-        <v>634.5896922473494</v>
+        <v>684.7603636721373</v>
       </c>
       <c r="Q17" t="n">
-        <v>634.5896922473494</v>
+        <v>684.7603636721373</v>
       </c>
       <c r="R17" t="n">
-        <v>736.1301565365208</v>
+        <v>684.7603636721373</v>
       </c>
       <c r="S17" t="n">
-        <v>736.1301565365208</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="T17" t="n">
-        <v>736.1301565365208</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9917332769882</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879299</v>
+        <v>730.3229325879302</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235032</v>
+        <v>689.4655660235035</v>
       </c>
       <c r="X17" t="n">
         <v>626.5008757530774</v>
@@ -5568,31 +5568,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>194.6519746546047</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C18" t="n">
-        <v>175.859950904508</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D18" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E18" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F18" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G18" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H18" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I18" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J18" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K18" t="n">
         <v>53.04316068142009</v>
@@ -5616,28 +5616,28 @@
         <v>753.9917332769883</v>
       </c>
       <c r="R18" t="n">
-        <v>753.9917332769883</v>
+        <v>617.9111264193341</v>
       </c>
       <c r="S18" t="n">
-        <v>753.9917332769883</v>
+        <v>574.4195932879236</v>
       </c>
       <c r="T18" t="n">
-        <v>753.9917332769883</v>
+        <v>384.0176404401992</v>
       </c>
       <c r="U18" t="n">
-        <v>753.9917332769883</v>
+        <v>384.0176404401992</v>
       </c>
       <c r="V18" t="n">
-        <v>753.9917332769883</v>
+        <v>193.6156875924749</v>
       </c>
       <c r="W18" t="n">
-        <v>563.589780429264</v>
+        <v>193.6156875924749</v>
       </c>
       <c r="X18" t="n">
-        <v>373.1878275815398</v>
+        <v>193.6156875924749</v>
       </c>
       <c r="Y18" t="n">
-        <v>373.1878275815398</v>
+        <v>193.6156875924749</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="M19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="N19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="O19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="P19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="R19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="S19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="T19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="U19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="V19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="W19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="X19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961942</v>
+        <v>463.3923242961944</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040787</v>
+        <v>410.1015905040789</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210051</v>
+        <v>369.3697837210058</v>
       </c>
       <c r="E20" t="n">
-        <v>294.590752271862</v>
+        <v>294.5907522718627</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940548</v>
+        <v>187.7709757940556</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116208</v>
+        <v>65.15430707116202</v>
       </c>
       <c r="H20" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95335735993308</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J20" t="n">
-        <v>70.95335735993308</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K20" t="n">
-        <v>257.5663113459877</v>
+        <v>201.6927886515944</v>
       </c>
       <c r="L20" t="n">
-        <v>304.2871538267477</v>
+        <v>388.305742637649</v>
       </c>
       <c r="M20" t="n">
-        <v>385.1490529136949</v>
+        <v>469.1676417245962</v>
       </c>
       <c r="N20" t="n">
-        <v>460.4769460493872</v>
+        <v>544.4955348602884</v>
       </c>
       <c r="O20" t="n">
-        <v>494.6975807420548</v>
+        <v>578.7161695529561</v>
       </c>
       <c r="P20" t="n">
-        <v>494.6975807420548</v>
+        <v>578.7161695529561</v>
       </c>
       <c r="Q20" t="n">
-        <v>681.3105347281094</v>
+        <v>578.7161695529561</v>
       </c>
       <c r="R20" t="n">
-        <v>681.3105347281094</v>
+        <v>680.2566338421276</v>
       </c>
       <c r="S20" t="n">
-        <v>707.1675751369969</v>
+        <v>749.4880034469786</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1675751369969</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9917332769883</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="V20" t="n">
         <v>730.3229325879302</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235035</v>
+        <v>689.4655660235036</v>
       </c>
       <c r="X20" t="n">
         <v>626.5008757530775</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122031</v>
+        <v>540.8060308122033</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>175.5075509482957</v>
+        <v>175.859950904508</v>
       </c>
       <c r="C21" t="n">
-        <v>175.5075509482957</v>
+        <v>175.859950904508</v>
       </c>
       <c r="D21" t="n">
-        <v>175.5075509482957</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E21" t="n">
-        <v>175.5075509482957</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F21" t="n">
         <v>15.07983466553977</v>
@@ -5832,49 +5832,49 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142009</v>
+        <v>53.0431606814201</v>
       </c>
       <c r="L21" t="n">
-        <v>170.3760798097941</v>
+        <v>170.3760798097942</v>
       </c>
       <c r="M21" t="n">
         <v>352.0527264137995</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6656803998541</v>
+        <v>538.6656803998542</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3666200188884</v>
+        <v>670.3666200188885</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9917332769883</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.0528889596538</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="R21" t="n">
-        <v>610.9722821019997</v>
+        <v>617.9111264193342</v>
       </c>
       <c r="S21" t="n">
-        <v>610.9722821019997</v>
+        <v>556.6638565999567</v>
       </c>
       <c r="T21" t="n">
-        <v>420.5703292542754</v>
+        <v>556.6638565999567</v>
       </c>
       <c r="U21" t="n">
-        <v>365.90950379602</v>
+        <v>556.6638565999567</v>
       </c>
       <c r="V21" t="n">
-        <v>365.90950379602</v>
+        <v>366.2619037522323</v>
       </c>
       <c r="W21" t="n">
-        <v>365.90950379602</v>
+        <v>366.2619037522323</v>
       </c>
       <c r="X21" t="n">
-        <v>175.5075509482957</v>
+        <v>175.859950904508</v>
       </c>
       <c r="Y21" t="n">
-        <v>175.5075509482957</v>
+        <v>175.859950904508</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961943</v>
+        <v>463.3923242961937</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040787</v>
+        <v>410.1015905040782</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210051</v>
+        <v>369.3697837210049</v>
       </c>
       <c r="E23" t="n">
-        <v>294.590752271862</v>
+        <v>294.5907522718618</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940549</v>
+        <v>187.7709757940548</v>
       </c>
       <c r="G23" t="n">
-        <v>65.15430707116208</v>
+        <v>65.15430707116201</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="I23" t="n">
-        <v>38.41954622895938</v>
+        <v>70.95335735993314</v>
       </c>
       <c r="J23" t="n">
-        <v>38.41954622895938</v>
+        <v>70.95335735993314</v>
       </c>
       <c r="K23" t="n">
-        <v>38.41954622895938</v>
+        <v>70.95335735993314</v>
       </c>
       <c r="L23" t="n">
-        <v>85.14038870971942</v>
+        <v>117.6741998406932</v>
       </c>
       <c r="M23" t="n">
-        <v>166.0022877966666</v>
+        <v>198.5360989276404</v>
       </c>
       <c r="N23" t="n">
-        <v>241.3301809323589</v>
+        <v>273.8639920633326</v>
       </c>
       <c r="O23" t="n">
-        <v>275.5508156250265</v>
+        <v>380.7658253048788</v>
       </c>
       <c r="P23" t="n">
-        <v>462.1637696110811</v>
+        <v>567.3787792909334</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.1637696110811</v>
+        <v>753.9917332769879</v>
       </c>
       <c r="R23" t="n">
-        <v>563.7042339002526</v>
+        <v>753.9917332769879</v>
       </c>
       <c r="S23" t="n">
-        <v>632.9356035051035</v>
+        <v>753.9917332769879</v>
       </c>
       <c r="T23" t="n">
-        <v>707.167575136997</v>
+        <v>753.9917332769879</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769879</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879302</v>
+        <v>730.3229325879294</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235035</v>
+        <v>689.4655660235027</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530775</v>
+        <v>626.5008757530768</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122032</v>
+        <v>540.8060308122026</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>610.9722821019998</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="C24" t="n">
-        <v>610.9722821019998</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="D24" t="n">
-        <v>561.2080958012132</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="E24" t="n">
-        <v>561.2080958012132</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="F24" t="n">
-        <v>400.7803795184573</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="G24" t="n">
-        <v>250.5333042915615</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="H24" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="K24" t="n">
-        <v>53.0431606814201</v>
+        <v>53.04316068142008</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097941</v>
       </c>
       <c r="M24" t="n">
         <v>352.0527264137995</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998542</v>
+        <v>538.6656803998541</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188885</v>
+        <v>670.3666200188884</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.052888959654</v>
+        <v>753.9917332769879</v>
       </c>
       <c r="R24" t="n">
-        <v>610.9722821019998</v>
+        <v>617.9111264193338</v>
       </c>
       <c r="S24" t="n">
-        <v>610.9722821019998</v>
+        <v>617.9111264193338</v>
       </c>
       <c r="T24" t="n">
-        <v>610.9722821019998</v>
+        <v>427.5091735716095</v>
       </c>
       <c r="U24" t="n">
-        <v>610.9722821019998</v>
+        <v>237.1072207238853</v>
       </c>
       <c r="V24" t="n">
-        <v>610.9722821019998</v>
+        <v>237.1072207238853</v>
       </c>
       <c r="W24" t="n">
-        <v>610.9722821019998</v>
+        <v>237.1072207238853</v>
       </c>
       <c r="X24" t="n">
-        <v>610.9722821019998</v>
+        <v>46.70526787616103</v>
       </c>
       <c r="Y24" t="n">
-        <v>610.9722821019998</v>
+        <v>15.07983466553976</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553976</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.898422489612</v>
+        <v>1020.89842248961</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874119</v>
+        <v>882.7966579874102</v>
       </c>
       <c r="D26" t="n">
-        <v>757.253820494254</v>
+        <v>757.2538204942523</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350266</v>
+        <v>597.6637583350248</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471351</v>
+        <v>406.0329511471343</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141576</v>
+        <v>198.6052517141569</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845091</v>
+        <v>63.71974859845022</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2527996589551</v>
+        <v>171.2527996589553</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9427824528781</v>
+        <v>375.9427824528782</v>
       </c>
       <c r="L26" t="n">
-        <v>634.013527952399</v>
+        <v>634.0135279523992</v>
       </c>
       <c r="M26" t="n">
         <v>926.2253300581073</v>
@@ -6239,37 +6239,37 @@
         <v>1212.90312621256</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.47366392399</v>
+        <v>1458.473663923989</v>
       </c>
       <c r="P26" t="n">
-        <v>1654.882514315173</v>
+        <v>1654.882514315172</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.417797666886</v>
+        <v>1777.417797666885</v>
       </c>
       <c r="R26" t="n">
-        <v>1795.834970757104</v>
+        <v>1795.834970757103</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.660986883925</v>
+        <v>1781.660986883924</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.589137514412</v>
+        <v>1772.589137514411</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020827</v>
+        <v>1735.552985020826</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621685</v>
+        <v>1627.073153621683</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347174</v>
+        <v>1501.404756347172</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366664</v>
+        <v>1353.629035366662</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.123159715705</v>
+        <v>1183.123159715703</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>35.91669941514208</v>
+        <v>225.3289736821783</v>
       </c>
       <c r="C27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="D27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="E27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="K27" t="n">
-        <v>73.8800254310224</v>
+        <v>73.88002543102237</v>
       </c>
       <c r="L27" t="n">
         <v>191.2129445593964</v>
       </c>
       <c r="M27" t="n">
-        <v>372.8895911634018</v>
+        <v>372.8895911634017</v>
       </c>
       <c r="N27" t="n">
-        <v>577.794567574161</v>
+        <v>577.7945675741609</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4955071931953</v>
+        <v>709.4955071931952</v>
       </c>
       <c r="P27" t="n">
-        <v>793.1206204512952</v>
+        <v>793.1206204512951</v>
       </c>
       <c r="Q27" t="n">
-        <v>786.1817761339607</v>
+        <v>786.1817761339606</v>
       </c>
       <c r="R27" t="n">
-        <v>650.1011692763066</v>
+        <v>755.0428493067121</v>
       </c>
       <c r="S27" t="n">
-        <v>650.1011692763066</v>
+        <v>561.5167974683239</v>
       </c>
       <c r="T27" t="n">
-        <v>648.5999843455093</v>
+        <v>560.0156125375266</v>
       </c>
       <c r="U27" t="n">
-        <v>624.616833867845</v>
+        <v>536.0324620598624</v>
       </c>
       <c r="V27" t="n">
-        <v>597.1782779169347</v>
+        <v>292.9527439634965</v>
       </c>
       <c r="W27" t="n">
-        <v>481.0653868631181</v>
+        <v>239.1953368392433</v>
       </c>
       <c r="X27" t="n">
-        <v>261.5573924798144</v>
+        <v>235.3285046013952</v>
       </c>
       <c r="Y27" t="n">
-        <v>35.91669941514208</v>
+        <v>225.3289736821783</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91669941514208</v>
+        <v>103.5357786856994</v>
       </c>
       <c r="E28" t="n">
-        <v>35.91669941514208</v>
+        <v>103.5357786856994</v>
       </c>
       <c r="F28" t="n">
-        <v>35.91669941514208</v>
+        <v>103.5357786856994</v>
       </c>
       <c r="G28" t="n">
-        <v>35.91669941514208</v>
+        <v>103.5357786856994</v>
       </c>
       <c r="H28" t="n">
-        <v>35.91669941514208</v>
+        <v>103.5357786856994</v>
       </c>
       <c r="I28" t="n">
-        <v>35.91669941514208</v>
+        <v>103.5357786856994</v>
       </c>
       <c r="J28" t="n">
-        <v>35.91669941514208</v>
+        <v>103.5357786856994</v>
       </c>
       <c r="K28" t="n">
-        <v>35.91669941514208</v>
+        <v>103.5357786856994</v>
       </c>
       <c r="L28" t="n">
-        <v>91.91670631504729</v>
+        <v>266.1625141760094</v>
       </c>
       <c r="M28" t="n">
-        <v>91.91670631504729</v>
+        <v>266.1625141760094</v>
       </c>
       <c r="N28" t="n">
-        <v>91.91670631504729</v>
+        <v>266.1625141760094</v>
       </c>
       <c r="O28" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760094</v>
       </c>
       <c r="P28" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760094</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760094</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760094</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909794</v>
+        <v>243.9874698909795</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239874</v>
+        <v>233.6068558239875</v>
       </c>
       <c r="U28" t="n">
-        <v>157.675738203215</v>
+        <v>157.6757382032151</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7320365259939</v>
+        <v>125.732036525994</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737337</v>
+        <v>48.1300601973734</v>
       </c>
       <c r="X28" t="n">
         <v>39.61015627389706</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874108</v>
+        <v>882.7966579874115</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942527</v>
+        <v>757.2538204942538</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350252</v>
+        <v>597.6637583350264</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471338</v>
+        <v>406.0329511471351</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141563</v>
+        <v>198.6052517141579</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845032</v>
+        <v>63.71974859845113</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2527996589549</v>
+        <v>171.252799658955</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9427824528779</v>
+        <v>375.942782452878</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523988</v>
+        <v>634.013527952399</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581067</v>
+        <v>926.2253300581073</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.90312621256</v>
+        <v>1212.903126212561</v>
       </c>
       <c r="O29" t="n">
         <v>1458.47366392399</v>
@@ -6494,7 +6494,7 @@
         <v>1772.589137514411</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.552985020827</v>
+        <v>1735.552985020826</v>
       </c>
       <c r="V29" t="n">
         <v>1627.073153621684</v>
@@ -6503,10 +6503,10 @@
         <v>1501.404756347173</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.123159715704</v>
+        <v>1183.123159715705</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>196.6968156541103</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C30" t="n">
-        <v>196.6968156541103</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K30" t="n">
         <v>73.8800254310224</v>
@@ -6561,31 +6561,31 @@
         <v>793.1206204512952</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.1206204512952</v>
+        <v>786.1817761339607</v>
       </c>
       <c r="R30" t="n">
-        <v>793.1206204512952</v>
+        <v>786.1817761339607</v>
       </c>
       <c r="S30" t="n">
-        <v>599.594568612907</v>
+        <v>786.1817761339607</v>
       </c>
       <c r="T30" t="n">
-        <v>598.0933836821097</v>
+        <v>586.2445004159456</v>
       </c>
       <c r="U30" t="n">
-        <v>507.4003040317945</v>
+        <v>562.2613499382815</v>
       </c>
       <c r="V30" t="n">
-        <v>264.3205859354286</v>
+        <v>319.1816318419155</v>
       </c>
       <c r="W30" t="n">
-        <v>210.5631788111754</v>
+        <v>49.78306257220679</v>
       </c>
       <c r="X30" t="n">
-        <v>206.6963465733272</v>
+        <v>45.91623033435878</v>
       </c>
       <c r="Y30" t="n">
-        <v>196.6968156541103</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.42585097558455</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C31" t="n">
-        <v>71.42585097558455</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D31" t="n">
-        <v>71.42585097558455</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E31" t="n">
-        <v>71.42585097558455</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F31" t="n">
-        <v>145.2381405980832</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G31" t="n">
-        <v>145.2381405980832</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H31" t="n">
-        <v>192.4218899387242</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I31" t="n">
-        <v>192.4218899387242</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J31" t="n">
-        <v>192.4218899387242</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K31" t="n">
-        <v>192.4218899387242</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="L31" t="n">
-        <v>192.4218899387242</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="M31" t="n">
-        <v>192.4218899387242</v>
+        <v>91.91670631504661</v>
       </c>
       <c r="N31" t="n">
-        <v>192.4218899387242</v>
+        <v>91.91670631504661</v>
       </c>
       <c r="O31" t="n">
-        <v>192.4218899387242</v>
+        <v>266.1625141760086</v>
       </c>
       <c r="P31" t="n">
-        <v>266.1625141760098</v>
+        <v>266.1625141760086</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1625141760098</v>
+        <v>266.1625141760086</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760098</v>
+        <v>266.1625141760086</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909798</v>
+        <v>243.9874698909788</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239878</v>
+        <v>233.606855823987</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6757382032154</v>
+        <v>157.6757382032147</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7320365259942</v>
+        <v>125.7320365259936</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737354</v>
+        <v>48.13006019737318</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389715</v>
+        <v>39.61015627389696</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.789988510279</v>
+        <v>1014.789988510278</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806689</v>
+        <v>877.5242945806682</v>
       </c>
       <c r="D32" t="n">
-        <v>752.817527660101</v>
+        <v>752.8175276601004</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734636</v>
+        <v>594.0635360734631</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581623</v>
+        <v>403.2687994581618</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977753</v>
+        <v>196.6771705977754</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465905</v>
+        <v>62.62773805465902</v>
       </c>
       <c r="I32" t="n">
         <v>35.660759443941</v>
@@ -6701,22 +6701,22 @@
         <v>171.8162924559494</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3257080180679</v>
+        <v>357.4097545154553</v>
       </c>
       <c r="L32" t="n">
-        <v>636.2158862857844</v>
+        <v>616.2999327831719</v>
       </c>
       <c r="M32" t="n">
-        <v>929.2471211596883</v>
+        <v>909.3311676570756</v>
       </c>
       <c r="N32" t="n">
-        <v>1216.744350082337</v>
+        <v>1196.828396579725</v>
       </c>
       <c r="O32" t="n">
-        <v>1463.134320561961</v>
+        <v>1443.218367059349</v>
       </c>
       <c r="P32" t="n">
-        <v>1660.36260372134</v>
+        <v>1640.446650218727</v>
       </c>
       <c r="Q32" t="n">
         <v>1763.801366338636</v>
@@ -6734,16 +6734,16 @@
         <v>1725.264198178543</v>
       </c>
       <c r="V32" t="n">
-        <v>1617.620437351991</v>
+        <v>1617.62043735199</v>
       </c>
       <c r="W32" t="n">
-        <v>1492.78811065007</v>
+        <v>1492.788110650069</v>
       </c>
       <c r="X32" t="n">
-        <v>1345.84846024215</v>
+        <v>1345.848460242149</v>
       </c>
       <c r="Y32" t="n">
-        <v>1176.178655163782</v>
+        <v>1176.178655163781</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1252.402477649485</v>
+        <v>101.360525663865</v>
       </c>
       <c r="C33" t="n">
-        <v>1252.402477649485</v>
+        <v>101.360525663865</v>
       </c>
       <c r="D33" t="n">
-        <v>1252.402477649485</v>
+        <v>101.360525663865</v>
       </c>
       <c r="E33" t="n">
-        <v>1078.839273770899</v>
+        <v>101.360525663865</v>
       </c>
       <c r="F33" t="n">
-        <v>1078.839273770899</v>
+        <v>35.660759443941</v>
       </c>
       <c r="G33" t="n">
-        <v>1078.839273770899</v>
+        <v>35.660759443941</v>
       </c>
       <c r="H33" t="n">
-        <v>1078.839273770899</v>
+        <v>35.660759443941</v>
       </c>
       <c r="I33" t="n">
-        <v>1078.839273770899</v>
+        <v>35.660759443941</v>
       </c>
       <c r="J33" t="n">
-        <v>1025.834051160897</v>
+        <v>35.660759443941</v>
       </c>
       <c r="K33" t="n">
-        <v>1063.797377176777</v>
+        <v>73.62408545982132</v>
       </c>
       <c r="L33" t="n">
-        <v>1181.130296305151</v>
+        <v>190.9570045881954</v>
       </c>
       <c r="M33" t="n">
-        <v>1362.806942909156</v>
+        <v>372.6336511922007</v>
       </c>
       <c r="N33" t="n">
-        <v>1567.711919319916</v>
+        <v>577.5386276029599</v>
       </c>
       <c r="O33" t="n">
-        <v>1699.41285893895</v>
+        <v>709.2395672219942</v>
       </c>
       <c r="P33" t="n">
-        <v>1783.03797219705</v>
+        <v>792.8646804800941</v>
       </c>
       <c r="Q33" t="n">
-        <v>1783.03797219705</v>
+        <v>785.9258361627597</v>
       </c>
       <c r="R33" t="n">
-        <v>1783.03797219705</v>
+        <v>649.8452293051055</v>
       </c>
       <c r="S33" t="n">
-        <v>1783.03797219705</v>
+        <v>649.8452293051055</v>
       </c>
       <c r="T33" t="n">
-        <v>1782.372857838843</v>
+        <v>649.1801149468984</v>
       </c>
       <c r="U33" t="n">
-        <v>1759.225777933769</v>
+        <v>626.0330350418242</v>
       </c>
       <c r="V33" t="n">
-        <v>1732.623292555448</v>
+        <v>382.9533169454583</v>
       </c>
       <c r="W33" t="n">
-        <v>1481.073932379415</v>
+        <v>113.5547476757496</v>
       </c>
       <c r="X33" t="n">
-        <v>1261.565937996111</v>
+        <v>110.5239860104916</v>
       </c>
       <c r="Y33" t="n">
-        <v>1252.402477649485</v>
+        <v>101.360525663865</v>
       </c>
     </row>
     <row r="34">
@@ -6838,67 +6838,67 @@
         <v>35.660759443941</v>
       </c>
       <c r="D34" t="n">
-        <v>104.099271482694</v>
+        <v>35.660759443941</v>
       </c>
       <c r="E34" t="n">
-        <v>104.099271482694</v>
+        <v>35.660759443941</v>
       </c>
       <c r="F34" t="n">
-        <v>104.099271482694</v>
+        <v>35.660759443941</v>
       </c>
       <c r="G34" t="n">
-        <v>149.2548400917696</v>
+        <v>35.660759443941</v>
       </c>
       <c r="H34" t="n">
-        <v>149.2548400917696</v>
+        <v>83.66394155277766</v>
       </c>
       <c r="I34" t="n">
-        <v>149.2548400917696</v>
+        <v>132.6288389524488</v>
       </c>
       <c r="J34" t="n">
-        <v>149.2548400917696</v>
+        <v>132.6288389524488</v>
       </c>
       <c r="K34" t="n">
-        <v>149.2548400917696</v>
+        <v>132.6288389524488</v>
       </c>
       <c r="L34" t="n">
-        <v>260.0540801966774</v>
+        <v>132.6288389524488</v>
       </c>
       <c r="M34" t="n">
-        <v>260.0540801966774</v>
+        <v>132.6288389524488</v>
       </c>
       <c r="N34" t="n">
-        <v>260.0540801966774</v>
+        <v>249.2804059537984</v>
       </c>
       <c r="O34" t="n">
-        <v>260.0540801966774</v>
+        <v>249.2804059537984</v>
       </c>
       <c r="P34" t="n">
-        <v>260.0540801966774</v>
+        <v>249.2804059537984</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.0540801966774</v>
+        <v>249.2804059537984</v>
       </c>
       <c r="R34" t="n">
-        <v>260.0540801966774</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="S34" t="n">
-        <v>238.7151064842376</v>
+        <v>238.7151064842374</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1705629898358</v>
+        <v>229.1705629898356</v>
       </c>
       <c r="U34" t="n">
-        <v>154.0755159416535</v>
+        <v>154.0755159416534</v>
       </c>
       <c r="V34" t="n">
-        <v>122.9678848370225</v>
+        <v>122.9678848370224</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099205</v>
+        <v>46.201979080992</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010586</v>
+        <v>38.51814573010584</v>
       </c>
       <c r="Y34" t="n">
         <v>35.660759443941</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.01906753611</v>
+        <v>623.0190675361092</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0833815513522</v>
+        <v>544.0833815513515</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756366</v>
+        <v>477.7066225756359</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338513</v>
+        <v>377.2826389338506</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8179102634026</v>
+        <v>244.8179102634017</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786685</v>
+        <v>96.55628934786677</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I35" t="n">
-        <v>51.57576979998699</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J35" t="n">
-        <v>244.9005435987448</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K35" t="n">
-        <v>502.7567448750735</v>
+        <v>278.6930660259306</v>
       </c>
       <c r="L35" t="n">
-        <v>753.337423423663</v>
+        <v>536.5492673022591</v>
       </c>
       <c r="M35" t="n">
-        <v>834.1993225106102</v>
+        <v>617.4111663892063</v>
       </c>
       <c r="N35" t="n">
-        <v>909.5272156463025</v>
+        <v>875.2673676655347</v>
       </c>
       <c r="O35" t="n">
-        <v>943.7478503389701</v>
+        <v>965.4373908349518</v>
       </c>
       <c r="P35" t="n">
-        <v>943.7478503389701</v>
+        <v>965.4373908349518</v>
       </c>
       <c r="Q35" t="n">
-        <v>943.7478503389701</v>
+        <v>965.4373908349518</v>
       </c>
       <c r="R35" t="n">
-        <v>1020.153696984133</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="S35" t="n">
-        <v>1020.153696984133</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.153696984133</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="U35" t="n">
-        <v>1041.843237480116</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984149</v>
+        <v>992.5294845984138</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413458</v>
+        <v>926.0271658413449</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782777</v>
+        <v>837.4175233782768</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447612</v>
+        <v>726.0777262447604</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>508.0102148320281</v>
+        <v>210.2491390166386</v>
       </c>
       <c r="C36" t="n">
-        <v>508.0102148320281</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D36" t="n">
-        <v>508.0102148320281</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E36" t="n">
-        <v>458.5172366489248</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F36" t="n">
-        <v>298.0895203661689</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G36" t="n">
-        <v>147.8424451392731</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548264</v>
+        <v>58.80019076548262</v>
       </c>
       <c r="L36" t="n">
         <v>176.1331098938567</v>
@@ -7035,31 +7035,31 @@
         <v>778.0407857857554</v>
       </c>
       <c r="Q36" t="n">
-        <v>771.1019414684209</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="R36" t="n">
-        <v>771.1019414684209</v>
+        <v>641.9601789281012</v>
       </c>
       <c r="S36" t="n">
-        <v>771.1019414684209</v>
+        <v>641.9601789281012</v>
       </c>
       <c r="T36" t="n">
-        <v>771.1019414684209</v>
+        <v>641.9601789281012</v>
       </c>
       <c r="U36" t="n">
-        <v>771.1019414684209</v>
+        <v>641.9601789281012</v>
       </c>
       <c r="V36" t="n">
-        <v>771.1019414684209</v>
+        <v>429.7571333999422</v>
       </c>
       <c r="W36" t="n">
-        <v>508.0102148320281</v>
+        <v>429.7571333999422</v>
       </c>
       <c r="X36" t="n">
-        <v>508.0102148320281</v>
+        <v>210.2491390166386</v>
       </c>
       <c r="Y36" t="n">
-        <v>508.0102148320281</v>
+        <v>210.2491390166386</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J37" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K37" t="n">
-        <v>56.037801664111</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="L37" t="n">
-        <v>56.037801664111</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="M37" t="n">
-        <v>56.037801664111</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="N37" t="n">
-        <v>56.037801664111</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="O37" t="n">
-        <v>56.037801664111</v>
+        <v>37.60190385293248</v>
       </c>
       <c r="P37" t="n">
-        <v>56.037801664111</v>
+        <v>37.60190385293248</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.037801664111</v>
+        <v>37.60190385293248</v>
       </c>
       <c r="R37" t="n">
-        <v>56.037801664111</v>
+        <v>37.60190385293248</v>
       </c>
       <c r="S37" t="n">
-        <v>56.037801664111</v>
+        <v>37.60190385293248</v>
       </c>
       <c r="T37" t="n">
-        <v>56.037801664111</v>
+        <v>37.60190385293248</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27276256078076</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27276256078076</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0190675361107</v>
+        <v>623.0190675361098</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0833815513529</v>
+        <v>544.0833815513521</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756371</v>
+        <v>477.7066225756363</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2826389338517</v>
+        <v>377.282638933851</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634024</v>
+        <v>244.8179102634017</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55628934786685</v>
+        <v>96.55628934786677</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I38" t="n">
-        <v>51.57576979998699</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J38" t="n">
-        <v>51.57576979998699</v>
+        <v>214.1616385483602</v>
       </c>
       <c r="K38" t="n">
-        <v>309.4319710763156</v>
+        <v>472.0178398246885</v>
       </c>
       <c r="L38" t="n">
-        <v>356.1528135570757</v>
+        <v>518.7386823054485</v>
       </c>
       <c r="M38" t="n">
-        <v>560.4812596552247</v>
+        <v>751.7707527450964</v>
       </c>
       <c r="N38" t="n">
-        <v>635.809152790917</v>
+        <v>827.0986458807887</v>
       </c>
       <c r="O38" t="n">
-        <v>670.0297874835846</v>
+        <v>861.3192805734564</v>
       </c>
       <c r="P38" t="n">
-        <v>670.0297874835846</v>
+        <v>861.3192805734564</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5537443902429</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="R38" t="n">
-        <v>926.9595910354057</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="S38" t="n">
-        <v>971.056342996248</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.153696984133</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="U38" t="n">
-        <v>1041.843237480116</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984154</v>
+        <v>992.5294845984142</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0271658413465</v>
+        <v>926.0271658413453</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782782</v>
+        <v>837.4175233782772</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447618</v>
+        <v>726.0777262447609</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>628.8091912584239</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C39" t="n">
-        <v>439.3969169913876</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D39" t="n">
-        <v>439.3969169913876</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E39" t="n">
-        <v>439.3969169913876</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F39" t="n">
-        <v>284.6393164439627</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G39" t="n">
-        <v>284.6393164439627</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H39" t="n">
-        <v>284.6393164439627</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I39" t="n">
-        <v>284.6393164439627</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J39" t="n">
-        <v>284.6393164439627</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K39" t="n">
-        <v>322.602642459843</v>
+        <v>58.80019076548262</v>
       </c>
       <c r="L39" t="n">
-        <v>439.9355615882171</v>
+        <v>176.1331098938567</v>
       </c>
       <c r="M39" t="n">
-        <v>621.6122081922224</v>
+        <v>357.8097564978621</v>
       </c>
       <c r="N39" t="n">
-        <v>826.5171846029815</v>
+        <v>562.7147329086212</v>
       </c>
       <c r="O39" t="n">
-        <v>958.2181242220158</v>
+        <v>694.4156725276555</v>
       </c>
       <c r="P39" t="n">
-        <v>1041.843237480116</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="Q39" t="n">
-        <v>1041.843237480116</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="R39" t="n">
-        <v>1041.843237480116</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="S39" t="n">
-        <v>848.3171856417275</v>
+        <v>584.5147339473672</v>
       </c>
       <c r="T39" t="n">
-        <v>848.3171856417275</v>
+        <v>503.540895469088</v>
       </c>
       <c r="U39" t="n">
-        <v>848.3171856417275</v>
+        <v>263.9165828459682</v>
       </c>
       <c r="V39" t="n">
-        <v>848.3171856417275</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="W39" t="n">
-        <v>848.3171856417275</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="X39" t="n">
-        <v>628.8091912584239</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Y39" t="n">
-        <v>628.8091912584239</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83686474960231</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83686474960231</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83686474960231</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83686474960231</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83686474960231</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="M40" t="n">
-        <v>20.83686474960231</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="N40" t="n">
-        <v>20.83686474960231</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="O40" t="n">
-        <v>56.037801664111</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="P40" t="n">
-        <v>56.037801664111</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.037801664111</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="R40" t="n">
-        <v>56.037801664111</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="S40" t="n">
-        <v>56.037801664111</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="T40" t="n">
-        <v>56.037801664111</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27276256078076</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27276256078076</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83686474960231</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="41">
@@ -7385,61 +7385,61 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4263542753163</v>
+        <v>818.4263542753164</v>
       </c>
       <c r="C41" t="n">
         <v>708.1276389564246</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465749</v>
+        <v>610.3878506465751</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706554</v>
+        <v>478.6008376706559</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7730796660722</v>
+        <v>314.7730796660726</v>
       </c>
       <c r="G41" t="n">
-        <v>135.1484294164039</v>
+        <v>135.1484294164038</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="J41" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="K41" t="n">
-        <v>260.0057267824886</v>
+        <v>180.0525228629569</v>
       </c>
       <c r="L41" t="n">
-        <v>545.32624078657</v>
+        <v>465.3730368670384</v>
       </c>
       <c r="M41" t="n">
-        <v>626.1881398735172</v>
+        <v>784.8346074773069</v>
       </c>
       <c r="N41" t="n">
-        <v>940.1157045325308</v>
+        <v>1098.76217213632</v>
       </c>
       <c r="O41" t="n">
-        <v>1102.256917861789</v>
+        <v>1371.582478352309</v>
       </c>
       <c r="P41" t="n">
-        <v>1325.915536757532</v>
+        <v>1371.582478352309</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.915536757532</v>
+        <v>1371.582478352309</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.58247835231</v>
+        <v>1371.582478352309</v>
       </c>
       <c r="S41" t="n">
-        <v>1384.940325262768</v>
+        <v>1384.940325262767</v>
       </c>
       <c r="T41" t="n">
-        <v>1403.298774200268</v>
+        <v>1403.298774200267</v>
       </c>
       <c r="U41" t="n">
         <v>1394.065670889991</v>
@@ -7454,7 +7454,7 @@
         <v>1095.550868785752</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8480423181014</v>
+        <v>952.8480423181015</v>
       </c>
     </row>
     <row r="42">
@@ -7464,61 +7464,61 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="C42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="D42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="E42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988569</v>
+        <v>66.02930149988568</v>
       </c>
       <c r="L42" t="n">
-        <v>183.3622206282598</v>
+        <v>183.3622206282597</v>
       </c>
       <c r="M42" t="n">
-        <v>365.0388672322651</v>
+        <v>365.038867232265</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9438436430244</v>
+        <v>569.9438436430241</v>
       </c>
       <c r="O42" t="n">
-        <v>701.6447832620587</v>
+        <v>701.6447832620585</v>
       </c>
       <c r="P42" t="n">
-        <v>785.2698965201586</v>
+        <v>785.2698965201583</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.2698965201586</v>
+        <v>785.2698965201583</v>
       </c>
       <c r="R42" t="n">
-        <v>785.2698965201586</v>
+        <v>785.2698965201583</v>
       </c>
       <c r="S42" t="n">
-        <v>591.7438446817704</v>
+        <v>785.2698965201583</v>
       </c>
       <c r="T42" t="n">
-        <v>523.1052378183864</v>
+        <v>762.7295504415063</v>
       </c>
       <c r="U42" t="n">
         <v>523.1052378183864</v>
@@ -7533,7 +7533,7 @@
         <v>253.7066685486777</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="H43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="I43" t="n">
-        <v>103.4612086200412</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="J43" t="n">
-        <v>103.4612086200412</v>
+        <v>70.3378773231471</v>
       </c>
       <c r="K43" t="n">
-        <v>103.4612086200412</v>
+        <v>70.3378773231471</v>
       </c>
       <c r="L43" t="n">
-        <v>130.133623560695</v>
+        <v>70.3378773231471</v>
       </c>
       <c r="M43" t="n">
-        <v>130.133623560695</v>
+        <v>70.3378773231471</v>
       </c>
       <c r="N43" t="n">
-        <v>130.133623560695</v>
+        <v>70.3378773231471</v>
       </c>
       <c r="O43" t="n">
-        <v>130.133623560695</v>
+        <v>70.3378773231471</v>
       </c>
       <c r="P43" t="n">
-        <v>130.133623560695</v>
+        <v>70.3378773231471</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.133623560695</v>
+        <v>70.3378773231471</v>
       </c>
       <c r="R43" t="n">
-        <v>130.133623560695</v>
+        <v>107.5418873023906</v>
       </c>
       <c r="S43" t="n">
-        <v>130.133623560695</v>
+        <v>113.0578949031932</v>
       </c>
       <c r="T43" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606948</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00555512323076</v>
+        <v>82.00555512323064</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86490262931777</v>
+        <v>77.8649026293177</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4263542753165</v>
+        <v>818.4263542753171</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564248</v>
+        <v>708.1276389564255</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465751</v>
+        <v>610.3878506465755</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706554</v>
+        <v>478.6008376706558</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660721</v>
+        <v>314.7730796660726</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="J44" t="n">
         <v>190.6518442323785</v>
       </c>
       <c r="K44" t="n">
-        <v>190.6518442323785</v>
+        <v>422.5915955308618</v>
       </c>
       <c r="L44" t="n">
-        <v>237.3726867131385</v>
+        <v>707.9121095349431</v>
       </c>
       <c r="M44" t="n">
-        <v>556.834257323407</v>
+        <v>788.7740086218902</v>
       </c>
       <c r="N44" t="n">
-        <v>870.7618219824205</v>
+        <v>1102.701573280904</v>
       </c>
       <c r="O44" t="n">
-        <v>1102.256917861789</v>
+        <v>1176.130484901258</v>
       </c>
       <c r="P44" t="n">
-        <v>1325.915536757532</v>
+        <v>1176.130484901258</v>
       </c>
       <c r="Q44" t="n">
         <v>1325.915536757532</v>
@@ -7673,10 +7673,10 @@
         <v>1371.58247835231</v>
       </c>
       <c r="S44" t="n">
-        <v>1384.940325262768</v>
+        <v>1384.940325262767</v>
       </c>
       <c r="T44" t="n">
-        <v>1403.298774200268</v>
+        <v>1403.298774200267</v>
       </c>
       <c r="U44" t="n">
         <v>1394.065670889991</v>
@@ -7685,13 +7685,13 @@
         <v>1313.388888674157</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.523540582954</v>
+        <v>1215.523540582955</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.550868785752</v>
+        <v>1095.550868785753</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181016</v>
+        <v>952.8480423181022</v>
       </c>
     </row>
     <row r="45">
@@ -7701,73 +7701,73 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="C45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02930149988569</v>
+        <v>66.02930149988565</v>
       </c>
       <c r="L45" t="n">
-        <v>183.3622206282598</v>
+        <v>183.3622206282596</v>
       </c>
       <c r="M45" t="n">
-        <v>365.0388672322651</v>
+        <v>365.0388672322649</v>
       </c>
       <c r="N45" t="n">
-        <v>569.9438436430244</v>
+        <v>569.943843643024</v>
       </c>
       <c r="O45" t="n">
-        <v>701.6447832620587</v>
+        <v>701.6447832620584</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2698965201586</v>
+        <v>785.2698965201581</v>
       </c>
       <c r="Q45" t="n">
-        <v>778.3310522028241</v>
+        <v>785.2698965201581</v>
       </c>
       <c r="R45" t="n">
-        <v>778.3310522028241</v>
+        <v>785.2698965201581</v>
       </c>
       <c r="S45" t="n">
-        <v>778.3310522028241</v>
+        <v>591.7438446817699</v>
       </c>
       <c r="T45" t="n">
-        <v>778.3310522028241</v>
+        <v>374.6014976055171</v>
       </c>
       <c r="U45" t="n">
-        <v>778.3310522028241</v>
+        <v>232.5561863518854</v>
       </c>
       <c r="V45" t="n">
-        <v>778.3310522028241</v>
+        <v>232.5561863518854</v>
       </c>
       <c r="W45" t="n">
-        <v>508.9324829331155</v>
+        <v>206.6018284109404</v>
       </c>
       <c r="X45" t="n">
-        <v>432.2425214756128</v>
+        <v>206.6018284109404</v>
       </c>
       <c r="Y45" t="n">
         <v>206.6018284109404</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="K46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="L46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="M46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="N46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.1336235606948</v>
       </c>
       <c r="O46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.1336235606948</v>
       </c>
       <c r="P46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606948</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606948</v>
       </c>
       <c r="R46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606948</v>
       </c>
       <c r="S46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606948</v>
       </c>
       <c r="T46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606948</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00555512323076</v>
+        <v>82.00555512323064</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86490262931777</v>
+        <v>77.8649026293177</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400535</v>
       </c>
     </row>
   </sheetData>
@@ -8532,16 +8532,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.3658051887314</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>172.1063303597423</v>
       </c>
       <c r="M9" t="n">
-        <v>173.4035213848624</v>
+        <v>176.6027710248758</v>
       </c>
       <c r="N9" t="n">
-        <v>163.3068757699624</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
         <v>177.1666678622357</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466382</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9021,7 +9021,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786792</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9483,7 +9483,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566415</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
         <v>301.77688131</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466382</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9389762247656</v>
+        <v>195.9389762247654</v>
       </c>
       <c r="C11" t="n">
-        <v>172.057233228111</v>
+        <v>172.0572332281109</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891595</v>
+        <v>159.6238954891594</v>
       </c>
       <c r="E11" t="n">
-        <v>4.83271458932137</v>
+        <v>193.3306479085682</v>
       </c>
       <c r="F11" t="n">
-        <v>36.5530521676987</v>
+        <v>225.0509854869456</v>
       </c>
       <c r="G11" t="n">
-        <v>52.19197549033376</v>
+        <v>240.6899088095806</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554828</v>
+        <v>54.51769991620208</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.86150506240816</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.7332812292991</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538042</v>
+        <v>49.36873040538029</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675148</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958198</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7315194560842</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416384</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>100.9698286601977</v>
+        <v>204.137303265382</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>170.5866617472919</v>
+        <v>195.9389762247655</v>
       </c>
       <c r="C14" t="n">
         <v>172.057233228111</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891594</v>
+        <v>159.6238954891595</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3306479085683</v>
+        <v>193.3306479085684</v>
       </c>
       <c r="F14" t="n">
-        <v>225.0509854869456</v>
+        <v>225.0509854869457</v>
       </c>
       <c r="G14" t="n">
         <v>240.6899088095807</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>88.60194570869542</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.86150506240827</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,13 +23540,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.73328122929907</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538033</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.31761724675147</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.137303265382</v>
+        <v>15.63936994613502</v>
       </c>
     </row>
     <row r="15">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>674787.0047229494</v>
+        <v>674787.0047229497</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>674787.0047229496</v>
+        <v>674787.0047229495</v>
       </c>
     </row>
     <row r="7">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793738.7956588138</v>
+        <v>793738.795658814</v>
       </c>
       <c r="C2" t="n">
-        <v>793738.7956588139</v>
+        <v>793738.7956588136</v>
       </c>
       <c r="D2" t="n">
-        <v>794197.1841472349</v>
+        <v>794197.1841472348</v>
       </c>
       <c r="E2" t="n">
-        <v>683761.8858742208</v>
+        <v>683761.8858742206</v>
       </c>
       <c r="F2" t="n">
         <v>683761.8858742208</v>
@@ -26329,28 +26329,28 @@
         <v>795346.6939726822</v>
       </c>
       <c r="H2" t="n">
+        <v>795346.6939726818</v>
+      </c>
+      <c r="I2" t="n">
         <v>795346.6939726823</v>
-      </c>
-      <c r="I2" t="n">
-        <v>795346.6939726821</v>
       </c>
       <c r="J2" t="n">
         <v>795346.6939726825</v>
       </c>
       <c r="K2" t="n">
-        <v>795346.6939726823</v>
+        <v>795346.6939726822</v>
       </c>
       <c r="L2" t="n">
-        <v>795346.6939726815</v>
+        <v>795346.6939726813</v>
       </c>
       <c r="M2" t="n">
-        <v>795346.6939726823</v>
+        <v>795346.6939726821</v>
       </c>
       <c r="N2" t="n">
         <v>795346.6939726823</v>
       </c>
       <c r="O2" t="n">
-        <v>795346.6939726821</v>
+        <v>795346.6939726819</v>
       </c>
       <c r="P2" t="n">
         <v>795346.6939726825</v>
@@ -26372,13 +26372,13 @@
         <v>993.7829156773863</v>
       </c>
       <c r="E3" t="n">
-        <v>279126.1151787139</v>
+        <v>279126.1151787141</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913329</v>
+        <v>95439.52541913338</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262473</v>
+        <v>96101.6933126247</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232277</v>
+        <v>46197.3662923228</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924367</v>
+        <v>72254.91485924376</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26442,16 +26442,16 @@
         <v>367614.5661588978</v>
       </c>
       <c r="K4" t="n">
-        <v>367614.5661588977</v>
+        <v>367614.5661588978</v>
       </c>
       <c r="L4" t="n">
-        <v>367599.7761915191</v>
+        <v>367599.7761915192</v>
       </c>
       <c r="M4" t="n">
         <v>366789.8388182006</v>
       </c>
       <c r="N4" t="n">
-        <v>366789.8388182007</v>
+        <v>366789.8388182006</v>
       </c>
       <c r="O4" t="n">
         <v>367176.9014819184</v>
@@ -26476,10 +26476,10 @@
         <v>33822.11437811282</v>
       </c>
       <c r="E5" t="n">
+        <v>28642.95693774779</v>
+      </c>
+      <c r="F5" t="n">
         <v>28642.95693774777</v>
-      </c>
-      <c r="F5" t="n">
-        <v>28642.95693774778</v>
       </c>
       <c r="G5" t="n">
         <v>38672.33876582418</v>
@@ -26491,25 +26491,25 @@
         <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
+        <v>47449.6772201635</v>
+      </c>
+      <c r="K5" t="n">
         <v>47449.67722016352</v>
-      </c>
-      <c r="K5" t="n">
-        <v>47449.6772201635</v>
       </c>
       <c r="L5" t="n">
         <v>47324.7475828481</v>
       </c>
       <c r="M5" t="n">
-        <v>40913.29559868731</v>
+        <v>40913.2955986873</v>
       </c>
       <c r="N5" t="n">
-        <v>40913.29559868731</v>
+        <v>40913.2955986873</v>
       </c>
       <c r="O5" t="n">
-        <v>43797.12782887323</v>
+        <v>43797.12782887322</v>
       </c>
       <c r="P5" t="n">
-        <v>43797.12782887323</v>
+        <v>43797.12782887321</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>351031.0726055985</v>
+        <v>351026.6062213936</v>
       </c>
       <c r="C6" t="n">
-        <v>351031.0726055987</v>
+        <v>351026.6062213931</v>
       </c>
       <c r="D6" t="n">
-        <v>350463.3373021858</v>
+        <v>350460.1442193371</v>
       </c>
       <c r="E6" t="n">
-        <v>79774.31320045487</v>
+        <v>79464.355400181</v>
       </c>
       <c r="F6" t="n">
-        <v>358900.4283791686</v>
+        <v>358590.4705788954</v>
       </c>
       <c r="G6" t="n">
-        <v>294408.4611871987</v>
+        <v>294408.4611871985</v>
       </c>
       <c r="H6" t="n">
+        <v>389847.9866063314</v>
+      </c>
+      <c r="I6" t="n">
         <v>389847.9866063321</v>
-      </c>
-      <c r="I6" t="n">
-        <v>389847.9866063318</v>
       </c>
       <c r="J6" t="n">
         <v>236786.1675867419</v>
       </c>
       <c r="K6" t="n">
-        <v>380282.4505936211</v>
+        <v>380282.4505936209</v>
       </c>
       <c r="L6" t="n">
-        <v>284320.4768856897</v>
+        <v>284320.4768856893</v>
       </c>
       <c r="M6" t="n">
-        <v>341446.1932634717</v>
+        <v>341446.1932634714</v>
       </c>
       <c r="N6" t="n">
-        <v>387643.5595557943</v>
+        <v>387643.5595557944</v>
       </c>
       <c r="O6" t="n">
-        <v>312117.7498026469</v>
+        <v>312117.7498026465</v>
       </c>
       <c r="P6" t="n">
-        <v>384372.6646618909</v>
+        <v>384372.6646618908</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>178.1482641530679</v>
+      </c>
+      <c r="F2" t="n">
         <v>178.1482641530678</v>
-      </c>
-      <c r="F2" t="n">
-        <v>178.1482641530679</v>
       </c>
       <c r="G2" t="n">
         <v>297.4476709269845</v>
@@ -26710,7 +26710,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="K2" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="L2" t="n">
         <v>214.3124603908652</v>
@@ -26722,10 +26722,10 @@
         <v>272.0591682562687</v>
       </c>
       <c r="O2" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="P2" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
     </row>
     <row r="3">
@@ -26774,10 +26774,10 @@
         <v>101.1713840758393</v>
       </c>
       <c r="O3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="P3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758392</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>188.497933319247</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="F4" t="n">
-        <v>188.497933319247</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="G4" t="n">
-        <v>188.497933319247</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="H4" t="n">
         <v>188.4979333192471</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4979333192471</v>
+        <v>188.497933319247</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9587426892761</v>
+        <v>448.9587426892757</v>
       </c>
       <c r="K4" t="n">
         <v>448.9587426892759</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492625</v>
+        <v>445.7594930492624</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700289</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4608093700289</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="O4" t="n">
-        <v>350.824693550067</v>
+        <v>350.8246935500669</v>
       </c>
       <c r="P4" t="n">
-        <v>350.824693550067</v>
+        <v>350.8246935500669</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.2994067739166</v>
+        <v>119.2994067739167</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008429</v>
+        <v>94.18534375008434</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>120.1271166407809</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540347</v>
+        <v>57.74670786540349</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929166</v>
+        <v>63.13594470929172</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>185.2986836792335</v>
+        <v>185.2986836792336</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.460809370029</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003804</v>
+        <v>90.36388418003821</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.2994067739166</v>
+        <v>119.2994067739167</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008429</v>
+        <v>94.18534375008434</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="M4" t="n">
-        <v>185.2986836792335</v>
+        <v>185.2986836792336</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27880,7 +27880,7 @@
         <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
-        <v>17.12047468788361</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y8" t="n">
-        <v>382.2855674184499</v>
+        <v>382.4154828716409</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>173.5512447576523</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C9" t="n">
         <v>187.5181515243659</v>
@@ -27938,10 +27938,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E9" t="n">
-        <v>171.8275718397997</v>
+        <v>168.6283221997862</v>
       </c>
       <c r="F9" t="n">
-        <v>158.8234391199283</v>
+        <v>156.0055400370045</v>
       </c>
       <c r="G9" t="n">
         <v>148.9622183950918</v>
@@ -27950,7 +27950,7 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>112.0379203647931</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
         <v>73.03491363274843</v>
@@ -27974,7 +27974,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.44843229210258</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
         <v>145.0317031582867</v>
@@ -27983,7 +27983,7 @@
         <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
-        <v>215.8480604164874</v>
+        <v>212.6488107764739</v>
       </c>
       <c r="U9" t="n">
         <v>237.2423862021824</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="C11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>106.8192473728357</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N11" t="n">
-        <v>112.4091523741033</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>127.2421558515006</v>
       </c>
       <c r="P11" t="n">
-        <v>29.92497582848634</v>
+        <v>15.09197235108883</v>
       </c>
       <c r="Q11" t="n">
         <v>89.71173703742201</v>
       </c>
       <c r="R11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28178,13 +28178,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>62.8227722172734</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I12" t="n">
         <v>107.3634103439874</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T12" t="n">
-        <v>178.1482641530678</v>
+        <v>164.8775549756571</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1482641530678</v>
+        <v>48.73013617764154</v>
       </c>
       <c r="V12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W12" t="n">
-        <v>178.1482641530678</v>
+        <v>78.20665025776452</v>
       </c>
       <c r="X12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.1482641530678</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>178.1482641530678</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>178.1482641530678</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>174.2461226099369</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>178.1482641530678</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
         <v>168.7007749271525</v>
       </c>
       <c r="H13" t="n">
-        <v>178.1482641530678</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I13" t="n">
-        <v>164.852968067965</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J13" t="n">
-        <v>178.1482641530678</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K13" t="n">
         <v>67.02998013919</v>
       </c>
       <c r="L13" t="n">
-        <v>32.15181624817892</v>
+        <v>107.633637139995</v>
       </c>
       <c r="M13" t="n">
-        <v>178.1482641530678</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N13" t="n">
-        <v>16.52015736928138</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="O13" t="n">
-        <v>37.47888399777683</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="P13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.1482641530678</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="C14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="J14" t="n">
         <v>76.78161896459409</v>
       </c>
       <c r="K14" t="n">
-        <v>6.727192146301029</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="L14" t="n">
-        <v>124.5644288706589</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>106.8192473728357</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>112.4091523741033</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P14" t="n">
-        <v>178.1482641530679</v>
+        <v>15.09197235108883</v>
       </c>
       <c r="Q14" t="n">
-        <v>89.71173703742201</v>
+        <v>158.7989974262433</v>
       </c>
       <c r="R14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="15">
@@ -28406,10 +28406,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>82.87474594858446</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28454,25 +28454,25 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
-        <v>178.1482641530679</v>
+        <v>3.092858000757247</v>
       </c>
       <c r="T15" t="n">
-        <v>76.1285719056072</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V15" t="n">
-        <v>52.1509875961552</v>
+        <v>52.15098759615518</v>
       </c>
       <c r="W15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X15" t="n">
-        <v>28.81498112022356</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="16">
@@ -28488,10 +28488,10 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
@@ -28506,52 +28506,52 @@
         <v>164.852968067965</v>
       </c>
       <c r="J16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K16" t="n">
-        <v>178.1482641530679</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L16" t="n">
-        <v>178.1482641530679</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="N16" t="n">
-        <v>16.52015736928138</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="O16" t="n">
-        <v>37.47888399777683</v>
+        <v>106.3172542152738</v>
       </c>
       <c r="P16" t="n">
         <v>58.4785989002489</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.5343449485622</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="17">
@@ -28582,16 +28582,16 @@
         <v>297.4476709269845</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4476709269845</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="J17" t="n">
-        <v>76.78161896459409</v>
+        <v>265.2795522838412</v>
       </c>
       <c r="K17" t="n">
         <v>195.2251254655481</v>
       </c>
       <c r="L17" t="n">
-        <v>141.3051631366611</v>
+        <v>59.92257741254652</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28609,16 +28609,16 @@
         <v>89.71173703742201</v>
       </c>
       <c r="R17" t="n">
+        <v>194.8815453823669</v>
+      </c>
+      <c r="S17" t="n">
         <v>297.4476709269845</v>
-      </c>
-      <c r="S17" t="n">
-        <v>227.5169945584482</v>
       </c>
       <c r="T17" t="n">
         <v>222.4658813998193</v>
       </c>
       <c r="U17" t="n">
-        <v>268.1925382001926</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V17" t="n">
         <v>297.4476709269845</v>
@@ -28643,10 +28643,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>168.9140480117703</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -28688,25 +28688,25 @@
         <v>6.869455874161073</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>191.5907913200043</v>
+        <v>148.5341735199079</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9709236054903</v>
+        <v>26.47299028624321</v>
       </c>
       <c r="U18" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>52.15098759615518</v>
       </c>
       <c r="W18" t="n">
-        <v>78.20665025776455</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>28.81498112022356</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28819,7 +28819,7 @@
         <v>297.4476709269845</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4476709269845</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="J20" t="n">
         <v>76.78161896459409</v>
@@ -28828,7 +28828,7 @@
         <v>195.2251254655481</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28843,19 +28843,19 @@
         <v>15.09197235108883</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.2096703566691</v>
+        <v>89.71173703742201</v>
       </c>
       <c r="R20" t="n">
-        <v>194.8815453823669</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="S20" t="n">
-        <v>253.6352171936881</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4658813998193</v>
+        <v>227.0151034503342</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4476709269845</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V20" t="n">
         <v>297.4476709269845</v>
@@ -28883,13 +28883,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>148.7446044746268</v>
@@ -28922,28 +28922,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>191.5907913200043</v>
+        <v>130.9559941988206</v>
       </c>
       <c r="T21" t="n">
-        <v>26.4729902862432</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U21" t="n">
-        <v>183.1138522932158</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>52.15098759615515</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>28.81498112022354</v>
+        <v>28.81498112022351</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -29056,7 +29056,7 @@
         <v>297.4476709269845</v>
       </c>
       <c r="I23" t="n">
-        <v>264.5852354411525</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="J23" t="n">
         <v>76.78161896459409</v>
@@ -29074,25 +29074,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>73.41535206957431</v>
       </c>
       <c r="P23" t="n">
-        <v>203.5899056703359</v>
+        <v>203.5899056703358</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.71173703742201</v>
+        <v>278.209670356669</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4476709269845</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S23" t="n">
-        <v>297.4476709269845</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T23" t="n">
-        <v>297.4476709269845</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4476709269845</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V23" t="n">
         <v>297.4476709269845</v>
@@ -29120,22 +29120,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>109.9057706387998</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J24" t="n">
         <v>52.47517038390262</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -29168,10 +29168,10 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9709236054903</v>
+        <v>26.47299028624329</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2280694968886</v>
+        <v>48.73013617764164</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -29180,10 +29180,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022362</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>192.0751072555105</v>
       </c>
     </row>
     <row r="25">
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29399,10 +29399,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>103.8922632301016</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>213.484750524001</v>
@@ -29411,16 +29411,16 @@
         <v>213.484750524001</v>
       </c>
       <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>213.484750524001</v>
       </c>
-      <c r="W27" t="n">
-        <v>151.7528214337331</v>
-      </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="28">
@@ -29436,7 +29436,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>213.484750524001</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29460,7 +29460,7 @@
         <v>67.02998013919</v>
       </c>
       <c r="L28" t="n">
-        <v>88.71747978343672</v>
+        <v>196.4212460363708</v>
       </c>
       <c r="M28" t="n">
         <v>25.21686539889348</v>
@@ -29469,7 +29469,7 @@
         <v>16.52015736928138</v>
       </c>
       <c r="O28" t="n">
-        <v>213.484750524001</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P28" t="n">
         <v>58.4785989002489</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="C29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="D29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="E29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="F29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="G29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="H29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="I29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="J29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="K29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="L29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="M29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="N29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="O29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="P29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="R29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="S29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="T29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="U29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="V29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="W29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="X29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
     </row>
     <row r="30">
@@ -29594,7 +29594,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -29633,31 +29633,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161073</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
-        <v>213.4847505240009</v>
+        <v>17.03302064465529</v>
       </c>
       <c r="U30" t="n">
-        <v>147.4419206430766</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>213.4847505240009</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
     </row>
     <row r="31">
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.4847505240009</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
@@ -29679,13 +29679,13 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>213.4847505240009</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
         <v>168.7007749271525</v>
       </c>
       <c r="H31" t="n">
-        <v>213.4847505240009</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I31" t="n">
         <v>164.852968067965</v>
@@ -29700,16 +29700,16 @@
         <v>32.15181624817892</v>
       </c>
       <c r="M31" t="n">
-        <v>25.21686539889348</v>
+        <v>81.7825289341506</v>
       </c>
       <c r="N31" t="n">
         <v>16.52015736928138</v>
       </c>
       <c r="O31" t="n">
-        <v>37.47888399777683</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="P31" t="n">
-        <v>132.9640779278101</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q31" t="n">
         <v>127.2169859636892</v>
@@ -29718,25 +29718,25 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="T31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="U31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="V31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="W31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="X31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
     </row>
     <row r="32">
@@ -29773,7 +29773,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="K32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407515</v>
       </c>
       <c r="L32" t="n">
         <v>214.3124603908652</v>
@@ -29791,7 +29791,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.1953356407516</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="R32" t="n">
         <v>214.3124603908652</v>
@@ -29834,10 +29834,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>93.7806705622036</v>
       </c>
       <c r="G33" t="n">
         <v>148.7446044746268</v>
@@ -29849,7 +29849,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,10 +29870,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161073</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.5907913200043</v>
@@ -29885,13 +29885,13 @@
         <v>214.3124603908652</v>
       </c>
       <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
         <v>214.3124603908652</v>
-      </c>
-      <c r="W33" t="n">
-        <v>17.6707170027388</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>214.3124603908652</v>
@@ -29910,7 +29910,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>214.3124603908652</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -29919,13 +29919,13 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
+        <v>168.7007749271525</v>
+      </c>
+      <c r="H34" t="n">
         <v>214.3124603908652</v>
       </c>
-      <c r="H34" t="n">
-        <v>165.8243976546666</v>
-      </c>
       <c r="I34" t="n">
-        <v>164.852968067965</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="J34" t="n">
         <v>120.239607582909</v>
@@ -29934,13 +29934,13 @@
         <v>67.02998013919</v>
       </c>
       <c r="L34" t="n">
-        <v>144.0702405965707</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M34" t="n">
         <v>25.21686539889348</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52015736928138</v>
+        <v>134.3500230272102</v>
       </c>
       <c r="O34" t="n">
         <v>37.47888399777683</v>
@@ -29952,7 +29952,7 @@
         <v>127.2169859636892</v>
       </c>
       <c r="R34" t="n">
-        <v>203.4299611556341</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="S34" t="n">
         <v>214.3124603908652</v>
@@ -30004,25 +30004,25 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I35" t="n">
-        <v>272.0591682562687</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0591682562687</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K35" t="n">
-        <v>267.18800151633</v>
+        <v>267.1880015163297</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9190263311409</v>
+        <v>213.2680391874428</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>184.3720284248849</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>56.51453381489837</v>
       </c>
       <c r="P35" t="n">
         <v>15.09197235108883</v>
@@ -30040,7 +30040,7 @@
         <v>222.4658813998193</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0591682562687</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V35" t="n">
         <v>272.0591682562687</v>
@@ -30065,22 +30065,22 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>122.8295234385275</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I36" t="n">
         <v>107.3634103439874</v>
@@ -30107,10 +30107,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>191.5907913200043</v>
@@ -30122,13 +30122,13 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>30.56790584252485</v>
       </c>
       <c r="W36" t="n">
-        <v>6.243774206982664</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30168,7 +30168,7 @@
         <v>120.239607582909</v>
       </c>
       <c r="K37" t="n">
-        <v>102.5864820730372</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L37" t="n">
         <v>32.15181624817892</v>
@@ -30180,7 +30180,7 @@
         <v>16.52015736928138</v>
       </c>
       <c r="O37" t="n">
-        <v>37.47888399777683</v>
+        <v>54.41326693043358</v>
       </c>
       <c r="P37" t="n">
         <v>58.4785989002489</v>
@@ -30201,7 +30201,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="V37" t="n">
-        <v>245.1090151844499</v>
+        <v>263.7311341856402</v>
       </c>
       <c r="W37" t="n">
         <v>272.0591682562687</v>
@@ -30241,19 +30241,19 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I38" t="n">
+        <v>241.0097692154761</v>
+      </c>
+      <c r="J38" t="n">
         <v>272.0591682562687</v>
       </c>
-      <c r="J38" t="n">
-        <v>76.78161896459409</v>
-      </c>
       <c r="K38" t="n">
-        <v>267.18800151633</v>
+        <v>267.1880015163297</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>124.7136838496988</v>
+        <v>153.7072437906068</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30268,16 +30268,16 @@
         <v>272.0591682562687</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0591682562687</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0591682562687</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0591682562687</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0591682562687</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V38" t="n">
         <v>272.0591682562687</v>
@@ -30302,7 +30302,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30311,7 +30311,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>5.613414577977721</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7446044746268</v>
@@ -30353,19 +30353,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9709236054903</v>
+        <v>134.8068235119939</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30396,7 +30396,7 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H40" t="n">
-        <v>165.8243976546666</v>
+        <v>201.3808995885136</v>
       </c>
       <c r="I40" t="n">
         <v>164.852968067965</v>
@@ -30417,7 +30417,7 @@
         <v>16.52015736928138</v>
       </c>
       <c r="O40" t="n">
-        <v>73.03538593162398</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P40" t="n">
         <v>58.4785989002489</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="C41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="D41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="E41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="F41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="G41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="H41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="I41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="J41" t="n">
         <v>76.78161896459409</v>
       </c>
       <c r="K41" t="n">
-        <v>241.009769215476</v>
+        <v>160.2489571755451</v>
       </c>
       <c r="L41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="N41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="O41" t="n">
-        <v>129.2127056935255</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="P41" t="n">
-        <v>241.009769215476</v>
+        <v>15.09197235108883</v>
       </c>
       <c r="Q41" t="n">
         <v>89.71173703742201</v>
       </c>
       <c r="R41" t="n">
-        <v>241.009769215476</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="T41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="U41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="V41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="W41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="X41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
     </row>
     <row r="42">
@@ -30560,7 +30560,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,19 +30581,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161062</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R42" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
-        <v>147.0187028107401</v>
+        <v>192.6559809876247</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -30636,49 +30636,49 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I43" t="n">
-        <v>241.009769215476</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J43" t="n">
-        <v>120.239607582909</v>
+        <v>162.9384983295168</v>
       </c>
       <c r="K43" t="n">
         <v>67.02998013919</v>
       </c>
       <c r="L43" t="n">
-        <v>59.09364952156649</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M43" t="n">
         <v>25.21686539889348</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O43" t="n">
-        <v>37.47888399777682</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P43" t="n">
-        <v>58.47859890024889</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q43" t="n">
         <v>127.2169859636892</v>
       </c>
       <c r="R43" t="n">
-        <v>203.4299611556341</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="S43" t="n">
-        <v>235.4380443661806</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="T43" t="n">
-        <v>223.761558450323</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="U43" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="V43" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="W43" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="C44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="D44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="E44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="F44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="G44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="H44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="I44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="J44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="K44" t="n">
-        <v>6.727192146301014</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="M44" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="O44" t="n">
-        <v>199.2671325118187</v>
+        <v>39.60432012897665</v>
       </c>
       <c r="P44" t="n">
-        <v>241.009769215476</v>
+        <v>15.0919723510889</v>
       </c>
       <c r="Q44" t="n">
-        <v>89.71173703742201</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="R44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="S44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="T44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="U44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="V44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="W44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="X44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
     </row>
     <row r="45">
@@ -30797,7 +30797,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390264</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,31 +30818,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.869455874161101</v>
       </c>
       <c r="R45" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280694968886</v>
+        <v>96.60321135579323</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="X45" t="n">
-        <v>141.3898525965429</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30873,31 +30873,31 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I46" t="n">
-        <v>164.852968067965</v>
+        <v>164.8529680679651</v>
       </c>
       <c r="J46" t="n">
         <v>120.239607582909</v>
       </c>
       <c r="K46" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013919003</v>
       </c>
       <c r="L46" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817895</v>
       </c>
       <c r="M46" t="n">
-        <v>25.21686539889348</v>
+        <v>25.21686539889351</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928137</v>
+        <v>119.6187917901798</v>
       </c>
       <c r="O46" t="n">
-        <v>37.47888399777682</v>
+        <v>37.47888399777685</v>
       </c>
       <c r="P46" t="n">
-        <v>161.5772333211475</v>
+        <v>58.47859890024893</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.2169859636892</v>
+        <v>127.2169859636893</v>
       </c>
       <c r="R46" t="n">
         <v>203.4299611556341</v>
@@ -30909,13 +30909,13 @@
         <v>223.761558450323</v>
       </c>
       <c r="U46" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="V46" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="W46" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H41" t="n">
-        <v>4.165312310217847</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I41" t="n">
         <v>15.68003933501024</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51977792645939</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K41" t="n">
-        <v>51.73619878246051</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L41" t="n">
-        <v>64.18332941727849</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M41" t="n">
-        <v>71.41632078032856</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P41" t="n">
-        <v>58.48671957521928</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R41" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610815</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T41" t="n">
-        <v>1.780413000168791</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H42" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I42" t="n">
-        <v>7.492409103729615</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J42" t="n">
         <v>20.55974324884581</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133245</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134017</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P42" t="n">
-        <v>41.55471433862165</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R42" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S42" t="n">
-        <v>4.042083127935655</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971354</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U42" t="n">
         <v>0.01431670529375086</v>
@@ -34278,28 +34278,28 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H43" t="n">
         <v>1.622059239773294</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014372</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J43" t="n">
         <v>12.89852219602955</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19623423752831</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L43" t="n">
         <v>27.12388221600454</v>
       </c>
       <c r="M43" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N43" t="n">
-        <v>27.91832636309189</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O43" t="n">
         <v>25.78709310837952</v>
@@ -34311,16 +34311,16 @@
         <v>15.27687899545174</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203174846542645</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S43" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679425</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631724</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217847</v>
+        <v>4.165312310217841</v>
       </c>
       <c r="I44" t="n">
-        <v>15.68003933501024</v>
+        <v>15.68003933501022</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51977792645939</v>
+        <v>34.51977792645934</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246051</v>
+        <v>51.73619878246044</v>
       </c>
       <c r="L44" t="n">
-        <v>64.18332941727849</v>
+        <v>64.1833294172784</v>
       </c>
       <c r="M44" t="n">
-        <v>71.41632078032856</v>
+        <v>71.41632078032846</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401884</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556012</v>
+        <v>68.52759814556003</v>
       </c>
       <c r="P44" t="n">
-        <v>58.48671957521928</v>
+        <v>58.4867195752192</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178813</v>
+        <v>43.92109066178807</v>
       </c>
       <c r="R44" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318165</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610815</v>
+        <v>9.268112219610803</v>
       </c>
       <c r="T44" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168788</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705379</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650127</v>
       </c>
       <c r="H45" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122623</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729615</v>
+        <v>7.492409103729605</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55974324884581</v>
+        <v>20.55974324884578</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000164</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447574</v>
+        <v>47.24989970447567</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133245</v>
+        <v>55.13840432133237</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427546</v>
+        <v>56.59775381427539</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134017</v>
+        <v>51.7758874713401</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862165</v>
+        <v>41.55471433862159</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795496</v>
       </c>
       <c r="R45" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922246</v>
       </c>
       <c r="S45" t="n">
-        <v>4.042083127935655</v>
+        <v>4.04208312793565</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971354</v>
+        <v>0.8771368109971341</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375084</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.182440200792497</v>
       </c>
       <c r="H46" t="n">
-        <v>1.622059239773294</v>
+        <v>1.622059239773292</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014372</v>
+        <v>5.486474402014364</v>
       </c>
       <c r="J46" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602953</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752828</v>
       </c>
       <c r="L46" t="n">
-        <v>27.12388221600454</v>
+        <v>27.12388221600451</v>
       </c>
       <c r="M46" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786386</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91832636309189</v>
+        <v>27.91832636309185</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837952</v>
+        <v>25.78709310837949</v>
       </c>
       <c r="P46" t="n">
-        <v>22.06531301221256</v>
+        <v>22.06531301221253</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.27687899545174</v>
+        <v>15.27687899545172</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542645</v>
+        <v>8.203174846542634</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629241</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7795172215679425</v>
+        <v>0.7795172215679413</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590767</v>
+        <v>0.009951283679590753</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35176,7 +35176,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1299154531910392</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>3.199249640013477</v>
@@ -35215,7 +35215,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
     </row>
     <row r="9">
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.069987028295762</v>
+      </c>
+      <c r="M9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>3.069987028295762</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>3.199249640013477</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3666451884737</v>
+        <v>101.3666451884738</v>
       </c>
       <c r="K11" t="n">
-        <v>171.4210720067667</v>
+        <v>171.4210720067669</v>
       </c>
       <c r="L11" t="n">
         <v>47.1927701825859</v>
       </c>
       <c r="M11" t="n">
-        <v>188.497933319247</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="N11" t="n">
-        <v>188.497933319247</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O11" t="n">
-        <v>34.56629766936128</v>
+        <v>161.8084535208618</v>
       </c>
       <c r="P11" t="n">
-        <v>14.83300347739751</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N12" t="n">
-        <v>188.497933319247</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O12" t="n">
         <v>133.0312521404387</v>
@@ -35541,52 +35541,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5313434880996795</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.69108318109542</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.96561390235706</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>32.56998139771191</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.22138193462112</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>12.32386649840119</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.29529608510287</v>
       </c>
       <c r="J13" t="n">
-        <v>57.9086565701588</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>75.48182089181607</v>
       </c>
       <c r="M13" t="n">
-        <v>152.9313987541743</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>161.6281067837865</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>140.6693801552911</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6696652528189</v>
+        <v>119.669665252819</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.93127818937853</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>171.4210720067668</v>
       </c>
       <c r="L14" t="n">
-        <v>171.7571990532448</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M14" t="n">
-        <v>188.497933319247</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N14" t="n">
-        <v>188.497933319247</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O14" t="n">
-        <v>34.56629766936128</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="P14" t="n">
-        <v>163.056291801979</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>69.08726038882125</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181794</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35784,10 +35784,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>32.96561390235709</v>
       </c>
       <c r="E16" t="n">
-        <v>36.47212294084287</v>
+        <v>36.47212294084281</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.90865657015888</v>
+        <v>57.90865657015883</v>
       </c>
       <c r="K16" t="n">
-        <v>111.1182840138779</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>145.996447904889</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>152.9313987541744</v>
+        <v>152.9313987541743</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>161.6281067837864</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>68.83837021749702</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.317358984872981</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,16 +35878,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.4379017115084</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="K17" t="n">
-        <v>188.497933319247</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="L17" t="n">
-        <v>188.497933319247</v>
+        <v>107.1153475951324</v>
       </c>
       <c r="M17" t="n">
         <v>81.67868594641129</v>
@@ -35905,16 +35905,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5661255446176</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.93067636853634</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>18.04199670754283</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.4379017115084</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>188.4979333192471</v>
       </c>
       <c r="L20" t="n">
-        <v>47.1927701825859</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="M20" t="n">
         <v>81.67868594641129</v>
@@ -36139,19 +36139,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>102.5661255446177</v>
       </c>
       <c r="S20" t="n">
-        <v>26.11822263523994</v>
+        <v>69.93067636853634</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>4.549222050514924</v>
       </c>
       <c r="U20" t="n">
-        <v>47.29712943433472</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>38.34679395543468</v>
       </c>
       <c r="L21" t="n">
-        <v>118.5181001296707</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M21" t="n">
         <v>183.5117642464701</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>23.57546622567637</v>
+        <v>56.43790171150846</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36370,25 +36370,25 @@
         <v>76.08878094514371</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936128</v>
+        <v>107.9816497389356</v>
       </c>
       <c r="P23" t="n">
-        <v>188.4979333192471</v>
+        <v>188.497933319247</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>188.497933319247</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5661255446176</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.93067636853628</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>74.98178952716522</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>47.29712943433472</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4979333192471</v>
+        <v>188.497933319247</v>
       </c>
       <c r="O24" t="n">
         <v>133.0312521404387</v>
@@ -36595,10 +36595,10 @@
         <v>136.7031315594069</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7575583777</v>
+        <v>206.7575583776999</v>
       </c>
       <c r="L26" t="n">
-        <v>260.6775207065869</v>
+        <v>260.6775207065868</v>
       </c>
       <c r="M26" t="n">
         <v>295.1634364704123</v>
@@ -36610,13 +36610,13 @@
         <v>248.0510481933622</v>
       </c>
       <c r="P26" t="n">
-        <v>198.3927781729122</v>
+        <v>198.3927781729121</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865789</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163412</v>
+        <v>18.60320514163409</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,7 +36732,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>68.30210027329025</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>56.56566353525779</v>
+        <v>164.2694297881919</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>176.0058665262242</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.7031315594068</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7575583776999</v>
+        <v>206.7575583777</v>
       </c>
       <c r="L29" t="n">
-        <v>260.6775207065868</v>
+        <v>260.677520706587</v>
       </c>
       <c r="M29" t="n">
-        <v>295.1634364704122</v>
+        <v>295.1634364704124</v>
       </c>
       <c r="N29" t="n">
-        <v>289.5735314691446</v>
+        <v>289.5735314691448</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0510481933622</v>
+        <v>248.0510481933624</v>
       </c>
       <c r="P29" t="n">
-        <v>198.3927781729121</v>
+        <v>198.3927781729122</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.7730134865789</v>
+        <v>123.7730134865791</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163403</v>
+        <v>18.60320514163419</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.86782985903281</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36975,13 +36975,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>74.55786830555425</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.66035286933432</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -36996,16 +36996,16 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>56.56566353525712</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>176.0058665262242</v>
       </c>
       <c r="P31" t="n">
-        <v>74.48547902756115</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>137.5308414262711</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5852682445642</v>
+        <v>187.4681434944504</v>
       </c>
       <c r="L32" t="n">
         <v>261.5052305734511</v>
@@ -37087,10 +37087,10 @@
         <v>199.2204880397764</v>
       </c>
       <c r="Q32" t="n">
-        <v>104.4835986033296</v>
+        <v>124.6007233534432</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849833</v>
+        <v>19.43091500849836</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,7 +37206,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>69.12981014015449</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37215,13 +37215,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>45.61168546371273</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>48.48806273619864</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>49.45949232290018</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37230,13 +37230,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>111.9184243483917</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>117.8298656579288</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>10.8824992352311</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,25 +37300,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.0493990407926</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2775492916746</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4608093700289</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="L35" t="n">
-        <v>253.1117965137268</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="M35" t="n">
         <v>81.67868594641129</v>
       </c>
       <c r="N35" t="n">
-        <v>76.08878094514371</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="O35" t="n">
-        <v>34.56629766936128</v>
+        <v>91.08083148425965</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>77.1776228739018</v>
+        <v>77.17762287390185</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37336,7 +37336,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90862676361892</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>35.55650193384716</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>16.93438293265676</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37497,7 +37497,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>18.62211900119029</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -37537,19 +37537,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.0493990407926</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>195.2775492916746</v>
       </c>
       <c r="K38" t="n">
-        <v>260.4608093700289</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="L38" t="n">
         <v>47.1927701825859</v>
       </c>
       <c r="M38" t="n">
-        <v>206.3923697961101</v>
+        <v>235.3859297370181</v>
       </c>
       <c r="N38" t="n">
         <v>76.08878094514371</v>
@@ -37564,16 +37564,16 @@
         <v>182.3474312188467</v>
       </c>
       <c r="R38" t="n">
-        <v>77.1776228739018</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.54217369782047</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59328685644941</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90862676361892</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>35.55650193384716</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37780,34 +37780,34 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>234.282577069175</v>
+        <v>153.5217650292441</v>
       </c>
       <c r="L41" t="n">
         <v>288.202539398062</v>
       </c>
       <c r="M41" t="n">
-        <v>81.67868594641132</v>
+        <v>322.6884551618874</v>
       </c>
       <c r="N41" t="n">
         <v>317.0985501606198</v>
       </c>
       <c r="O41" t="n">
-        <v>163.7790033628868</v>
+        <v>275.5760668848374</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9177968643872</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12822383310917</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49277465702785</v>
+        <v>13.49277465702791</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54388781565679</v>
+        <v>18.54388781565684</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L42" t="n">
         <v>118.5181001296708</v>
@@ -37874,7 +37874,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46981137181804</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37932,16 +37932,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>76.15680114751099</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>42.69889074660782</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>26.94183327338759</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -37959,13 +37959,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.57980805984197</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.571724849295531</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>17.24821076515309</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38017,34 +38017,34 @@
         <v>164.228150250882</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>234.282577069175</v>
       </c>
       <c r="L44" t="n">
-        <v>47.19277018258592</v>
+        <v>288.202539398062</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6884551618874</v>
+        <v>81.67868594641122</v>
       </c>
       <c r="N44" t="n">
         <v>317.0985501606198</v>
       </c>
       <c r="O44" t="n">
-        <v>233.8334301811799</v>
+        <v>74.17061779833786</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9177968643872</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>151.298032178054</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12822383310917</v>
+        <v>46.1282238331092</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49277465702785</v>
+        <v>13.4927746570279</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54388781565679</v>
+        <v>18.54388781565684</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543464</v>
       </c>
       <c r="L45" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296707</v>
       </c>
       <c r="M45" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N45" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472314</v>
       </c>
       <c r="O45" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46981137181804</v>
+        <v>84.46981137181798</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,13 +38184,13 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>103.0986344208984</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>103.0986344208986</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
